--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Coronavirus Extrapolations</t>
   </si>
@@ -36,6 +36,23 @@
   <si>
     <t>Cases = Cases (-3) x exp(3 x week ch)</t>
   </si>
+  <si>
+    <t>3-week growth factor since sunday</t>
+  </si>
+  <si>
+    <t>Most recent 3-week deaths projection…</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u val="single"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Helvetica Neue"/>
+      </rPr>
+      <t>https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -45,7 +62,7 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -58,6 +75,12 @@
     </font>
     <font>
       <b val="1"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -202,7 +225,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -215,7 +238,7 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -227,7 +250,7 @@
     <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="2" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -239,20 +262,29 @@
     <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1333,7 +1365,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:H23"/>
+  <dimension ref="A2:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1341,8 +1373,9 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="10" width="22.9531" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="27.65" customHeight="1">
@@ -1356,6 +1389,8 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1379,381 +1414,377 @@
       <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
+      <c r="H2" t="s" s="3">
+        <v>8</v>
+      </c>
+      <c r="I2" t="s" s="3">
+        <v>9</v>
+      </c>
+      <c r="J2" s="4"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5">
-        <v>43926</v>
+        <v>43928</v>
       </c>
       <c r="B3" s="6">
-        <v>9618</v>
+        <v>12854</v>
       </c>
       <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <f>C6+3*(C6-C7)</f>
-        <v>3102000</v>
-      </c>
-      <c r="E3" s="7">
-        <f>5*C6</f>
-        <v>4809000</v>
-      </c>
-      <c r="F3" s="7">
-        <f>20*C6</f>
-        <v>19236000</v>
-      </c>
-      <c r="G3" s="7">
-        <f>C6*(C6/C7)^3</f>
-        <v>55832145.4145937</v>
-      </c>
-      <c r="H3" s="8"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8">
+        <f>(B3/B4)^(21/2)</f>
+        <v>21.0141578307885</v>
+      </c>
+      <c r="I3" s="8">
+        <f>B4*H3</f>
+        <v>202114.170016524</v>
+      </c>
+      <c r="J3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="9">
-        <f>$A3-7</f>
-        <v>43919</v>
+        <v>43926</v>
       </c>
       <c r="B4" s="10">
-        <v>2484</v>
+        <v>9618</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11">
         <f>C7+3*(C7-C8)</f>
-        <v>869400</v>
+        <v>3102000</v>
       </c>
       <c r="E4" s="11">
         <f>5*C7</f>
-        <v>1242000</v>
+        <v>4809000</v>
       </c>
       <c r="F4" s="11">
         <f>20*C7</f>
-        <v>4968000</v>
+        <v>19236000</v>
       </c>
       <c r="G4" s="11">
         <f>C7*(C7/C8)^3</f>
-        <v>53654400</v>
+        <v>55832145.4145937</v>
       </c>
       <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="11">
+        <f>100*I3</f>
+        <v>20211417.0016524</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="9">
         <f>$A4-7</f>
-        <v>43912</v>
+        <v>43919</v>
       </c>
       <c r="B5" s="10">
-        <v>414</v>
+        <v>2484</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11">
         <f>C8+3*(C8-C9)</f>
-        <v>144900</v>
+        <v>869400</v>
       </c>
       <c r="E5" s="11">
         <f>5*C8</f>
-        <v>207000</v>
+        <v>1242000</v>
       </c>
       <c r="F5" s="11">
         <f>20*C8</f>
-        <v>828000</v>
+        <v>4968000</v>
       </c>
       <c r="G5" s="11">
         <f>C8*(C8/C9)^3</f>
-        <v>8942400</v>
+        <v>53654400</v>
       </c>
       <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="11"/>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="9">
         <f>$A5-7</f>
-        <v>43905</v>
+        <v>43912</v>
       </c>
       <c r="B6" s="10">
-        <v>69</v>
-      </c>
-      <c r="C6" s="11">
-        <f>B3*100</f>
-        <v>961800</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="C6" s="11"/>
       <c r="D6" s="11">
         <f>C9+3*(C9-C10)</f>
-        <v>19800</v>
+        <v>144900</v>
       </c>
       <c r="E6" s="11">
         <f>5*C9</f>
-        <v>34500</v>
+        <v>207000</v>
       </c>
       <c r="F6" s="11">
         <f>20*C9</f>
-        <v>138000</v>
+        <v>828000</v>
       </c>
       <c r="G6" s="11">
         <f>C9*(C9/C10)^3</f>
-        <v>128966.323395539</v>
+        <v>8942400</v>
       </c>
       <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="11"/>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="9">
         <f>$A6-7</f>
-        <v>43898</v>
+        <v>43905</v>
       </c>
       <c r="B7" s="10">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="C7" s="11">
         <f>B4*100</f>
-        <v>248400</v>
+        <v>961800</v>
       </c>
       <c r="D7" s="11">
         <f>C10+3*(C10-C11)</f>
-        <v>10100</v>
+        <v>19800</v>
       </c>
       <c r="E7" s="11">
         <f>5*C10</f>
-        <v>13000</v>
+        <v>34500</v>
       </c>
       <c r="F7" s="11">
         <f>20*C10</f>
-        <v>52000</v>
+        <v>138000</v>
       </c>
       <c r="G7" s="11">
         <f>C10*(C10/C11)^3</f>
-        <v>45697600</v>
+        <v>128966.323395539</v>
       </c>
       <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="11"/>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="9">
         <f>$A7-7</f>
-        <v>43891</v>
+        <v>43898</v>
       </c>
       <c r="B8" s="10">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="C8" s="11">
         <f>B5*100</f>
-        <v>41400</v>
+        <v>248400</v>
       </c>
       <c r="D8" s="11">
         <f>C11+3*(C11-C12)</f>
-        <v>370</v>
+        <v>10100</v>
       </c>
       <c r="E8" s="11">
         <f>5*C11</f>
-        <v>500</v>
+        <v>13000</v>
       </c>
       <c r="F8" s="11">
         <f>20*C11</f>
-        <v>2000</v>
+        <v>52000</v>
       </c>
       <c r="G8" s="11">
         <f>C11*(C11/C12)^3</f>
-        <v>100000</v>
+        <v>45697600</v>
       </c>
       <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="11"/>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="9">
         <f>$A8-7</f>
-        <v>43884</v>
-      </c>
-      <c r="B9" s="13"/>
+        <v>43891</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
       <c r="C9" s="11">
         <f>B6*100</f>
-        <v>6900</v>
+        <v>41400</v>
       </c>
       <c r="D9" s="11">
         <f>C12+3*(C12-C13)</f>
-        <v>37</v>
+        <v>370</v>
       </c>
       <c r="E9" s="11">
         <f>5*C12</f>
-        <v>50</v>
+        <v>500</v>
       </c>
       <c r="F9" s="11">
         <f>20*C12</f>
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="G9" s="11">
         <f>C12*(C12/C13)^3</f>
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="11"/>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="9">
         <f>$A9-7</f>
-        <v>43877</v>
+        <v>43884</v>
       </c>
       <c r="B10" s="13"/>
       <c r="C10" s="11">
         <f>B7*100</f>
-        <v>2600</v>
+        <v>6900</v>
       </c>
       <c r="D10" s="11">
         <f>C13+3*(C13-C14)</f>
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="E10" s="11">
         <f>5*C13</f>
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="F10" s="11">
         <f>20*C13</f>
-        <v>20</v>
-      </c>
-      <c r="G10" s="11"/>
+        <v>200</v>
+      </c>
+      <c r="G10" s="11">
+        <f>C13*(C13/C14)^3</f>
+        <v>10000</v>
+      </c>
       <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="11"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="9">
         <f>$A10-7</f>
-        <v>43870</v>
+        <v>43877</v>
       </c>
       <c r="B11" s="13"/>
       <c r="C11" s="11">
         <f>B8*100</f>
-        <v>100</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+        <v>2600</v>
+      </c>
+      <c r="D11" s="11">
+        <f>C14+3*(C14-C15)</f>
+        <v>4</v>
+      </c>
+      <c r="E11" s="11">
+        <f>5*C14</f>
+        <v>5</v>
+      </c>
+      <c r="F11" s="11">
+        <f>20*C14</f>
+        <v>20</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="9">
         <f>$A11-7</f>
-        <v>43863</v>
+        <v>43870</v>
       </c>
       <c r="B12" s="13"/>
-      <c r="C12" s="14">
-        <v>10</v>
+      <c r="C12" s="11">
+        <f>B9*100</f>
+        <v>100</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="11"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="9">
         <f>$A12-7</f>
-        <v>43856</v>
+        <v>43863</v>
       </c>
       <c r="B13" s="13"/>
       <c r="C13" s="14">
-        <v>1</v>
-      </c>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="15"/>
+        <v>10</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="11"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="16"/>
+      <c r="A14" s="9">
+        <f>$A13-7</f>
+        <v>43856</v>
+      </c>
       <c r="B14" s="13"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="15"/>
+      <c r="C14" s="14">
+        <v>1</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="16"/>
       <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="11"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="16"/>
+      <c r="A15" s="17"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="15"/>
+      <c r="C15" s="14">
+        <v>0</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="16"/>
       <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="11"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="16"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="15"/>
+      <c r="A16" s="17"/>
+      <c r="B16" s="18"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="16"/>
       <c r="H16" s="12"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="11"/>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="16"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="15"/>
+      <c r="A17" s="17"/>
+      <c r="B17" t="s" s="19">
+        <v>10</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="12"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="16"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="12"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="16"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="12"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="16"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="12"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="16"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="12"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="12"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="16"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="12"/>
-    </row>
-    <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="16"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="12"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="B17" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+  </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Coronavirus Extrapolations</t>
   </si>
@@ -37,12 +37,6 @@
     <t>Cases = Cases (-3) x exp(3 x week ch)</t>
   </si>
   <si>
-    <t>3-week growth factor since sunday</t>
-  </si>
-  <si>
-    <t>Most recent 3-week deaths projection…</t>
-  </si>
-  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -62,13 +56,19 @@
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <b val="1"/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
@@ -225,23 +225,20 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -250,10 +247,7 @@
     <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="2" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -262,13 +256,7 @@
     <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -277,7 +265,7 @@
     <xf numFmtId="1" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1365,7 +1353,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J17"/>
+  <dimension ref="A2:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1374,11 +1362,10 @@
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="10" width="22.9531" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="28.65" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1388,9 +1375,6 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1414,376 +1398,312 @@
       <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="H2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="J2" s="4"/>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
-        <v>43928</v>
-      </c>
-      <c r="B3" s="6">
-        <v>12854</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8">
-        <f>(B3/B4)^(21/2)</f>
-        <v>21.0141578307885</v>
-      </c>
-      <c r="I3" s="8">
-        <f>B4*H3</f>
-        <v>202114.170016524</v>
-      </c>
-      <c r="J3" s="7"/>
+      <c r="A3" s="4">
+        <v>43937</v>
+      </c>
+      <c r="B3" s="5">
+        <v>34617</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6">
+        <f>C6+3*(C6-C7)</f>
+        <v>8833200</v>
+      </c>
+      <c r="E3" s="6">
+        <f>5*C6</f>
+        <v>17308500</v>
+      </c>
+      <c r="F3" s="6">
+        <f>20*C6</f>
+        <v>69234000</v>
+      </c>
+      <c r="G3" s="6">
+        <f>C6*(C6/C7)^3</f>
+        <v>30766098.870766</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
-        <v>43926</v>
-      </c>
-      <c r="B4" s="10">
-        <v>9618</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
+      <c r="A4" s="7">
+        <f>$A3-7</f>
+        <v>43930</v>
+      </c>
+      <c r="B4" s="8">
+        <v>16712</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9">
         <f>C7+3*(C7-C8)</f>
-        <v>3102000</v>
-      </c>
-      <c r="E4" s="11">
+        <v>4858400</v>
+      </c>
+      <c r="E4" s="9">
         <f>5*C7</f>
-        <v>4809000</v>
-      </c>
-      <c r="F4" s="11">
+        <v>8356000</v>
+      </c>
+      <c r="F4" s="9">
         <f>20*C7</f>
-        <v>19236000</v>
-      </c>
-      <c r="G4" s="11">
+        <v>33424000</v>
+      </c>
+      <c r="G4" s="9">
         <f>C7*(C7/C8)^3</f>
-        <v>55832145.4145937</v>
-      </c>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="11">
-        <f>100*I3</f>
-        <v>20211417.0016524</v>
+        <v>34569235.6108305</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
+      <c r="A5" s="7">
         <f>$A4-7</f>
-        <v>43919</v>
-      </c>
-      <c r="B5" s="10">
-        <v>2484</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11">
+        <v>43923</v>
+      </c>
+      <c r="B5" s="8">
+        <v>6088</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9">
         <f>C8+3*(C8-C9)</f>
-        <v>869400</v>
-      </c>
-      <c r="E5" s="11">
+        <v>2046400</v>
+      </c>
+      <c r="E5" s="9">
         <f>5*C8</f>
-        <v>1242000</v>
-      </c>
-      <c r="F5" s="11">
+        <v>3044000</v>
+      </c>
+      <c r="F5" s="9">
         <f>20*C8</f>
-        <v>4968000</v>
-      </c>
-      <c r="G5" s="11">
+        <v>12176000</v>
+      </c>
+      <c r="G5" s="9">
         <f>C8*(C8/C9)^3</f>
-        <v>53654400</v>
-      </c>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="11"/>
+        <v>63107877.0062904</v>
+      </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
+      <c r="A6" s="7">
         <f>$A5-7</f>
-        <v>43912</v>
-      </c>
-      <c r="B6" s="10">
-        <v>414</v>
-      </c>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11">
+        <v>43916</v>
+      </c>
+      <c r="B6" s="8">
+        <v>1296</v>
+      </c>
+      <c r="C6" s="9">
+        <f>B3*100</f>
+        <v>3461700</v>
+      </c>
+      <c r="D6" s="9">
         <f>C9+3*(C9-C10)</f>
-        <v>144900</v>
-      </c>
-      <c r="E6" s="11">
+        <v>456600</v>
+      </c>
+      <c r="E6" s="9">
         <f>5*C9</f>
-        <v>207000</v>
-      </c>
-      <c r="F6" s="11">
+        <v>648000</v>
+      </c>
+      <c r="F6" s="9">
         <f>20*C9</f>
-        <v>828000</v>
-      </c>
-      <c r="G6" s="11">
+        <v>2592000</v>
+      </c>
+      <c r="G6" s="9">
         <f>C9*(C9/C10)^3</f>
-        <v>8942400</v>
-      </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="11"/>
+        <v>32271440.0240865</v>
+      </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="7">
         <f>$A6-7</f>
-        <v>43905</v>
-      </c>
-      <c r="B7" s="10">
-        <v>69</v>
-      </c>
-      <c r="C7" s="11">
+        <v>43909</v>
+      </c>
+      <c r="B7" s="8">
+        <v>206</v>
+      </c>
+      <c r="C7" s="9">
         <f>B4*100</f>
-        <v>961800</v>
-      </c>
-      <c r="D7" s="11">
+        <v>1671200</v>
+      </c>
+      <c r="D7" s="9">
         <f>C10+3*(C10-C11)</f>
-        <v>19800</v>
-      </c>
-      <c r="E7" s="11">
+        <v>70100</v>
+      </c>
+      <c r="E7" s="9">
         <f>5*C10</f>
-        <v>34500</v>
-      </c>
-      <c r="F7" s="11">
+        <v>103000</v>
+      </c>
+      <c r="F7" s="9">
         <f>20*C10</f>
-        <v>138000</v>
-      </c>
-      <c r="G7" s="11">
+        <v>412000</v>
+      </c>
+      <c r="G7" s="9">
         <f>C10*(C10/C11)^3</f>
-        <v>128966.323395539</v>
-      </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="11"/>
+        <v>2612867.04487747</v>
+      </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="7">
         <f>$A7-7</f>
-        <v>43898</v>
-      </c>
-      <c r="B8" s="10">
-        <v>26</v>
-      </c>
-      <c r="C8" s="11">
+        <v>43902</v>
+      </c>
+      <c r="B8" s="8">
+        <v>41</v>
+      </c>
+      <c r="C8" s="9">
         <f>B5*100</f>
-        <v>248400</v>
-      </c>
-      <c r="D8" s="11">
+        <v>608800</v>
+      </c>
+      <c r="D8" s="9">
         <f>C11+3*(C11-C12)</f>
-        <v>10100</v>
-      </c>
-      <c r="E8" s="11">
+        <v>12800</v>
+      </c>
+      <c r="E8" s="9">
         <f>5*C11</f>
-        <v>13000</v>
-      </c>
-      <c r="F8" s="11">
+        <v>20500</v>
+      </c>
+      <c r="F8" s="9">
         <f>20*C11</f>
-        <v>52000</v>
-      </c>
-      <c r="G8" s="11">
+        <v>82000</v>
+      </c>
+      <c r="G8" s="9">
         <f>C11*(C11/C12)^3</f>
-        <v>45697600</v>
-      </c>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="11"/>
+        <v>163527.835648148</v>
+      </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="7">
         <f>$A8-7</f>
-        <v>43891</v>
-      </c>
-      <c r="B9" s="10">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11">
+        <v>43895</v>
+      </c>
+      <c r="B9" s="8">
+        <v>12</v>
+      </c>
+      <c r="C9" s="9">
         <f>B6*100</f>
-        <v>41400</v>
-      </c>
-      <c r="D9" s="11">
+        <v>129600</v>
+      </c>
+      <c r="D9" s="9">
         <f>C12+3*(C12-C13)</f>
-        <v>370</v>
-      </c>
-      <c r="E9" s="11">
+        <v>4500</v>
+      </c>
+      <c r="E9" s="9">
         <f>5*C12</f>
-        <v>500</v>
-      </c>
-      <c r="F9" s="11">
+        <v>6000</v>
+      </c>
+      <c r="F9" s="9">
         <f>20*C12</f>
-        <v>2000</v>
-      </c>
-      <c r="G9" s="11">
+        <v>24000</v>
+      </c>
+      <c r="G9" s="9">
         <f>C12*(C12/C13)^3</f>
-        <v>100000</v>
-      </c>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="11"/>
+        <v>2073600</v>
+      </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="7">
         <f>$A9-7</f>
-        <v>43884</v>
-      </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="11">
+        <v>43888</v>
+      </c>
+      <c r="B10" s="8">
+        <v>1</v>
+      </c>
+      <c r="C10" s="9">
         <f>B7*100</f>
-        <v>6900</v>
-      </c>
-      <c r="D10" s="11">
+        <v>20600</v>
+      </c>
+      <c r="D10" s="9">
         <f>C13+3*(C13-C14)</f>
-        <v>37</v>
-      </c>
-      <c r="E10" s="11">
+        <v>400</v>
+      </c>
+      <c r="E10" s="9">
         <f>5*C13</f>
-        <v>50</v>
-      </c>
-      <c r="F10" s="11">
+        <v>500</v>
+      </c>
+      <c r="F10" s="9">
         <f>20*C13</f>
-        <v>200</v>
-      </c>
-      <c r="G10" s="11">
-        <f>C13*(C13/C14)^3</f>
-        <v>10000</v>
-      </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="11"/>
+        <v>2000</v>
+      </c>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="7">
         <f>$A10-7</f>
-        <v>43877</v>
-      </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="11">
+        <v>43881</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="9">
         <f>B8*100</f>
-        <v>2600</v>
-      </c>
-      <c r="D11" s="11">
-        <f>C14+3*(C14-C15)</f>
-        <v>4</v>
-      </c>
-      <c r="E11" s="11">
-        <f>5*C14</f>
-        <v>5</v>
-      </c>
-      <c r="F11" s="11">
-        <f>20*C14</f>
-        <v>20</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="12"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="11"/>
+        <v>4100</v>
+      </c>
+      <c r="D11" s="9"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="7">
         <f>$A11-7</f>
-        <v>43870</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11">
+        <v>43874</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="9">
         <f>B9*100</f>
-        <v>100</v>
-      </c>
-      <c r="D12" s="11"/>
+        <v>1200</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="12"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="11"/>
+      <c r="G12" s="9"/>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="7">
         <f>$A12-7</f>
-        <v>43863</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="14">
-        <v>10</v>
+        <v>43867</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="9">
+        <f>B10*100</f>
+        <v>100</v>
       </c>
       <c r="D13" s="11"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="12"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="7">
         <f>$A13-7</f>
-        <v>43856</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="14">
-        <v>1</v>
-      </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="11"/>
+        <v>43860</v>
+      </c>
+      <c r="B14" s="10"/>
+      <c r="C14" s="9">
+        <f>B11*100</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="14">
-        <v>0</v>
-      </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="11"/>
+      <c r="A15" s="13"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12"/>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="17"/>
-      <c r="B16" s="18"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="11"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="17"/>
-      <c r="B17" t="s" s="19">
-        <v>10</v>
-      </c>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="11"/>
+      <c r="A16" s="13"/>
+      <c r="B16" t="s" s="15">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:G1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B16" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>Coronavirus Extrapolations</t>
   </si>
@@ -34,7 +34,10 @@
     <t>Cases = 20 x Cases (-3)</t>
   </si>
   <si>
-    <t>Cases = Cases (-3) x exp(3 x week ch)</t>
+    <t>Confirmed Cases</t>
+  </si>
+  <si>
+    <t>Inferred Cases/Confirmed Cases</t>
   </si>
   <si>
     <r>
@@ -225,7 +228,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -238,6 +241,9 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -247,6 +253,9 @@
     <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -256,10 +265,10 @@
     <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1353,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1361,8 +1370,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="7" width="16.3516" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="7.36719" style="1" customWidth="1"/>
+    <col min="8" max="9" width="16.3516" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.65" customHeight="1">
@@ -1375,6 +1386,8 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
     </row>
     <row r="2" ht="32.25" customHeight="1">
       <c r="A2" t="s" s="3">
@@ -1395,312 +1408,379 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="4"/>
+      <c r="H2" t="s" s="3">
         <v>7</v>
+      </c>
+      <c r="I2" t="s" s="3">
+        <v>8</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="4">
+      <c r="A3" s="5">
         <v>43937</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="6">
         <v>34617</v>
       </c>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7">
         <f>C6+3*(C6-C7)</f>
-        <v>8833200</v>
-      </c>
-      <c r="E3" s="6">
+        <v>4858400</v>
+      </c>
+      <c r="E3" s="7">
         <f>5*C6</f>
-        <v>17308500</v>
-      </c>
-      <c r="F3" s="6">
+        <v>8356000</v>
+      </c>
+      <c r="F3" s="7">
         <f>20*C6</f>
-        <v>69234000</v>
-      </c>
-      <c r="G3" s="6">
-        <f>C6*(C6/C7)^3</f>
-        <v>30766098.870766</v>
-      </c>
+        <v>33424000</v>
+      </c>
+      <c r="G3" s="8"/>
+      <c r="H3" s="7">
+        <v>639664</v>
+      </c>
+      <c r="I3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7">
+      <c r="A4" s="9">
         <f>$A3-7</f>
         <v>43930</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="10">
         <v>16712</v>
       </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11">
         <f>C7+3*(C7-C8)</f>
-        <v>4858400</v>
-      </c>
-      <c r="E4" s="9">
+        <v>2046400</v>
+      </c>
+      <c r="E4" s="11">
         <f>5*C7</f>
-        <v>8356000</v>
-      </c>
-      <c r="F4" s="9">
+        <v>3044000</v>
+      </c>
+      <c r="F4" s="11">
         <f>20*C7</f>
-        <v>33424000</v>
-      </c>
-      <c r="G4" s="9">
-        <f>C7*(C7/C8)^3</f>
-        <v>34569235.6108305</v>
-      </c>
+        <v>12176000</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="H4" s="11">
+        <v>432132</v>
+      </c>
+      <c r="I4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <f>$A4-7</f>
         <v>43923</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>6088</v>
       </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9">
+      <c r="C5" s="11">
+        <f>100*B3</f>
+        <v>3461700</v>
+      </c>
+      <c r="D5" s="11">
         <f>C8+3*(C8-C9)</f>
-        <v>2046400</v>
-      </c>
-      <c r="E5" s="9">
+        <v>456600</v>
+      </c>
+      <c r="E5" s="11">
         <f>5*C8</f>
-        <v>3044000</v>
-      </c>
-      <c r="F5" s="9">
+        <v>648000</v>
+      </c>
+      <c r="F5" s="11">
         <f>20*C8</f>
-        <v>12176000</v>
-      </c>
-      <c r="G5" s="9">
-        <f>C8*(C8/C9)^3</f>
-        <v>63107877.0062904</v>
+        <v>2592000</v>
+      </c>
+      <c r="G5" s="12"/>
+      <c r="H5" s="11">
+        <v>216721</v>
+      </c>
+      <c r="I5" s="11">
+        <f>C5/H5</f>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <f>$A5-7</f>
         <v>43916</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="10">
         <v>1296</v>
       </c>
-      <c r="C6" s="9">
-        <f>B3*100</f>
-        <v>3461700</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="11">
+        <f>100*B4</f>
+        <v>1671200</v>
+      </c>
+      <c r="D6" s="11">
         <f>C9+3*(C9-C10)</f>
-        <v>456600</v>
-      </c>
-      <c r="E6" s="9">
+        <v>70100</v>
+      </c>
+      <c r="E6" s="11">
         <f>5*C9</f>
-        <v>648000</v>
-      </c>
-      <c r="F6" s="9">
+        <v>103000</v>
+      </c>
+      <c r="F6" s="11">
         <f>20*C9</f>
-        <v>2592000</v>
-      </c>
-      <c r="G6" s="9">
-        <f>C9*(C9/C10)^3</f>
-        <v>32271440.0240865</v>
+        <v>412000</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="11">
+        <v>69194</v>
+      </c>
+      <c r="I6" s="11">
+        <f>C6/H6</f>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7">
+      <c r="A7" s="9">
         <f>$A6-7</f>
         <v>43909</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>206</v>
       </c>
-      <c r="C7" s="9">
-        <f>B4*100</f>
-        <v>1671200</v>
-      </c>
-      <c r="D7" s="9">
+      <c r="C7" s="11">
+        <f>100*B5</f>
+        <v>608800</v>
+      </c>
+      <c r="D7" s="11">
         <f>C10+3*(C10-C11)</f>
-        <v>70100</v>
-      </c>
-      <c r="E7" s="9">
+        <v>12800</v>
+      </c>
+      <c r="E7" s="11">
         <f>5*C10</f>
-        <v>103000</v>
-      </c>
-      <c r="F7" s="9">
+        <v>20500</v>
+      </c>
+      <c r="F7" s="11">
         <f>20*C10</f>
-        <v>412000</v>
-      </c>
-      <c r="G7" s="9">
-        <f>C10*(C10/C11)^3</f>
-        <v>2612867.04487747</v>
+        <v>82000</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="11">
+        <v>9415</v>
+      </c>
+      <c r="I7" s="11">
+        <f>C7/H7</f>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7">
+      <c r="A8" s="9">
         <f>$A7-7</f>
         <v>43902</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="10">
         <v>41</v>
       </c>
-      <c r="C8" s="9">
-        <f>B5*100</f>
-        <v>608800</v>
-      </c>
-      <c r="D8" s="9">
+      <c r="C8" s="11">
+        <f>100*B6</f>
+        <v>129600</v>
+      </c>
+      <c r="D8" s="11">
         <f>C11+3*(C11-C12)</f>
-        <v>12800</v>
-      </c>
-      <c r="E8" s="9">
+        <v>4500</v>
+      </c>
+      <c r="E8" s="11">
         <f>5*C11</f>
-        <v>20500</v>
-      </c>
-      <c r="F8" s="9">
+        <v>6000</v>
+      </c>
+      <c r="F8" s="11">
         <f>20*C11</f>
-        <v>82000</v>
-      </c>
-      <c r="G8" s="9">
-        <f>C11*(C11/C12)^3</f>
-        <v>163527.835648148</v>
+        <v>24000</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="11">
+        <v>1312</v>
+      </c>
+      <c r="I8" s="11">
+        <f>C8/H8</f>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7">
+      <c r="A9" s="9">
         <f>$A8-7</f>
         <v>43895</v>
       </c>
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>12</v>
       </c>
-      <c r="C9" s="9">
-        <f>B6*100</f>
-        <v>129600</v>
-      </c>
-      <c r="D9" s="9">
+      <c r="C9" s="11">
+        <f>100*B7</f>
+        <v>20600</v>
+      </c>
+      <c r="D9" s="11">
         <f>C12+3*(C12-C13)</f>
-        <v>4500</v>
-      </c>
-      <c r="E9" s="9">
+        <v>400</v>
+      </c>
+      <c r="E9" s="11">
         <f>5*C12</f>
-        <v>6000</v>
-      </c>
-      <c r="F9" s="9">
+        <v>500</v>
+      </c>
+      <c r="F9" s="11">
         <f>20*C12</f>
-        <v>24000</v>
-      </c>
-      <c r="G9" s="9">
-        <f>C12*(C12/C13)^3</f>
-        <v>2073600</v>
+        <v>2000</v>
+      </c>
+      <c r="G9" s="12"/>
+      <c r="H9" s="11">
+        <v>159</v>
+      </c>
+      <c r="I9" s="11">
+        <f>C9/H9</f>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7">
+      <c r="A10" s="9">
         <f>$A9-7</f>
         <v>43888</v>
       </c>
-      <c r="B10" s="8">
+      <c r="B10" s="10">
         <v>1</v>
       </c>
-      <c r="C10" s="9">
-        <f>B7*100</f>
-        <v>20600</v>
-      </c>
-      <c r="D10" s="9">
+      <c r="C10" s="11">
+        <f>100*B8</f>
+        <v>4100</v>
+      </c>
+      <c r="D10" s="11">
         <f>C13+3*(C13-C14)</f>
-        <v>400</v>
-      </c>
-      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="11">
         <f>5*C13</f>
-        <v>500</v>
-      </c>
-      <c r="F10" s="9">
+        <v>0</v>
+      </c>
+      <c r="F10" s="11">
         <f>20*C13</f>
-        <v>2000</v>
-      </c>
-      <c r="G10" s="9"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11">
+        <v>59</v>
+      </c>
+      <c r="I10" s="11">
+        <f>C10/H10</f>
+        <v>69.4915254237288</v>
+      </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7">
+      <c r="A11" s="9">
         <f>$A10-7</f>
         <v>43881</v>
       </c>
-      <c r="B11" s="10"/>
-      <c r="C11" s="9">
-        <f>B8*100</f>
-        <v>4100</v>
-      </c>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="11">
+        <f>100*B9</f>
+        <v>1200</v>
+      </c>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11">
+        <v>15</v>
+      </c>
+      <c r="I11" s="11">
+        <f>C11/H11</f>
+        <v>80</v>
+      </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7">
+      <c r="A12" s="9">
         <f>$A11-7</f>
         <v>43874</v>
       </c>
-      <c r="B12" s="10"/>
-      <c r="C12" s="9">
-        <f>B9*100</f>
-        <v>1200</v>
-      </c>
-      <c r="D12" s="9"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="11">
+        <f>100*B10</f>
+        <v>100</v>
+      </c>
+      <c r="D12" s="11"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11">
+        <v>14</v>
+      </c>
+      <c r="I12" s="11">
+        <f>C12/H12</f>
+        <v>7.14285714285714</v>
+      </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7">
+      <c r="A13" s="9">
         <f>$A12-7</f>
         <v>43867</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="9">
-        <f>B10*100</f>
-        <v>100</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14">
+        <v>12</v>
+      </c>
+      <c r="I13" s="11">
+        <f>C13/H13</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7">
+      <c r="A14" s="9">
         <f>$A13-7</f>
         <v>43860</v>
       </c>
-      <c r="B14" s="10"/>
-      <c r="C14" s="9">
-        <f>B11*100</f>
+      <c r="B14" s="13"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14">
+        <v>5</v>
+      </c>
+      <c r="I14" s="11">
+        <f>C14/H14</f>
         <v>0</v>
       </c>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="12"/>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="12"/>
+      <c r="A15" s="15"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="11">
+        <f>C15/H15</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="13"/>
-      <c r="B16" t="s" s="15">
-        <v>8</v>
-      </c>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="12"/>
+      <c r="A16" s="15"/>
+      <c r="B16" t="s" s="17">
+        <v>9</v>
+      </c>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B16" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -1362,7 +1362,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I16"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1418,322 +1418,335 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="B3" s="6">
-        <v>34617</v>
+        <v>50236</v>
       </c>
       <c r="C3" s="7"/>
       <c r="D3" s="7">
         <f>C6+3*(C6-C7)</f>
-        <v>4858400</v>
+        <v>8833200</v>
       </c>
       <c r="E3" s="7">
         <f>5*C6</f>
-        <v>8356000</v>
+        <v>17308500</v>
       </c>
       <c r="F3" s="7">
         <f>20*C6</f>
-        <v>33424000</v>
+        <v>69234000</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="7">
-        <v>639664</v>
+        <v>886442</v>
       </c>
       <c r="I3" s="7"/>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="9">
-        <f>$A3-7</f>
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B4" s="10">
-        <v>16712</v>
+        <v>34617</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11">
         <f>C7+3*(C7-C8)</f>
-        <v>2046400</v>
+        <v>4858400</v>
       </c>
       <c r="E4" s="11">
         <f>5*C7</f>
-        <v>3044000</v>
+        <v>8356000</v>
       </c>
       <c r="F4" s="11">
         <f>20*C7</f>
-        <v>12176000</v>
+        <v>33424000</v>
       </c>
       <c r="G4" s="12"/>
       <c r="H4" s="11">
-        <v>432132</v>
+        <v>639664</v>
       </c>
       <c r="I4" s="11"/>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="9">
         <f>$A4-7</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="B5" s="10">
-        <v>6088</v>
+        <v>16712</v>
       </c>
       <c r="C5" s="11">
         <f>100*B3</f>
-        <v>3461700</v>
+        <v>5023600</v>
       </c>
       <c r="D5" s="11">
         <f>C8+3*(C8-C9)</f>
-        <v>456600</v>
+        <v>2046400</v>
       </c>
       <c r="E5" s="11">
         <f>5*C8</f>
-        <v>648000</v>
+        <v>3044000</v>
       </c>
       <c r="F5" s="11">
         <f>20*C8</f>
-        <v>2592000</v>
+        <v>12176000</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="11">
-        <v>216721</v>
+        <v>432132</v>
       </c>
       <c r="I5" s="11">
         <f>C5/H5</f>
-        <v>15.9730713682569</v>
+        <v>11.6251515740561</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="9">
         <f>$A5-7</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="B6" s="10">
-        <v>1296</v>
+        <v>6088</v>
       </c>
       <c r="C6" s="11">
         <f>100*B4</f>
-        <v>1671200</v>
+        <v>3461700</v>
       </c>
       <c r="D6" s="11">
         <f>C9+3*(C9-C10)</f>
-        <v>70100</v>
+        <v>456600</v>
       </c>
       <c r="E6" s="11">
         <f>5*C9</f>
-        <v>103000</v>
+        <v>648000</v>
       </c>
       <c r="F6" s="11">
         <f>20*C9</f>
-        <v>412000</v>
+        <v>2592000</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="11">
-        <v>69194</v>
+        <v>216721</v>
       </c>
       <c r="I6" s="11">
         <f>C6/H6</f>
-        <v>24.1523831546088</v>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="9">
         <f>$A6-7</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B7" s="10">
-        <v>206</v>
+        <v>1296</v>
       </c>
       <c r="C7" s="11">
         <f>100*B5</f>
-        <v>608800</v>
+        <v>1671200</v>
       </c>
       <c r="D7" s="11">
         <f>C10+3*(C10-C11)</f>
-        <v>12800</v>
+        <v>70100</v>
       </c>
       <c r="E7" s="11">
         <f>5*C10</f>
-        <v>20500</v>
+        <v>103000</v>
       </c>
       <c r="F7" s="11">
         <f>20*C10</f>
-        <v>82000</v>
+        <v>412000</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="11">
-        <v>9415</v>
+        <v>69194</v>
       </c>
       <c r="I7" s="11">
         <f>C7/H7</f>
-        <v>64.6627721720659</v>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="9">
         <f>$A7-7</f>
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B8" s="10">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C8" s="11">
         <f>100*B6</f>
-        <v>129600</v>
+        <v>608800</v>
       </c>
       <c r="D8" s="11">
         <f>C11+3*(C11-C12)</f>
-        <v>4500</v>
+        <v>12800</v>
       </c>
       <c r="E8" s="11">
         <f>5*C11</f>
-        <v>6000</v>
+        <v>20500</v>
       </c>
       <c r="F8" s="11">
         <f>20*C11</f>
-        <v>24000</v>
+        <v>82000</v>
       </c>
       <c r="G8" s="12"/>
       <c r="H8" s="11">
-        <v>1312</v>
+        <v>9415</v>
       </c>
       <c r="I8" s="11">
         <f>C8/H8</f>
-        <v>98.78048780487801</v>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="9">
         <f>$A8-7</f>
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="B9" s="10">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C9" s="11">
         <f>100*B7</f>
-        <v>20600</v>
+        <v>129600</v>
       </c>
       <c r="D9" s="11">
         <f>C12+3*(C12-C13)</f>
-        <v>400</v>
+        <v>4500</v>
       </c>
       <c r="E9" s="11">
         <f>5*C12</f>
-        <v>500</v>
+        <v>6000</v>
       </c>
       <c r="F9" s="11">
         <f>20*C12</f>
-        <v>2000</v>
+        <v>24000</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="11">
-        <v>159</v>
+        <v>1312</v>
       </c>
       <c r="I9" s="11">
         <f>C9/H9</f>
-        <v>129.559748427673</v>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="9">
         <f>$A9-7</f>
-        <v>43888</v>
+        <v>43895</v>
       </c>
       <c r="B10" s="10">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C10" s="11">
         <f>100*B8</f>
-        <v>4100</v>
+        <v>20600</v>
       </c>
       <c r="D10" s="11">
         <f>C13+3*(C13-C14)</f>
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="E10" s="11">
         <f>5*C13</f>
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="F10" s="11">
         <f>20*C13</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="11"/>
+        <v>2000</v>
+      </c>
+      <c r="G10" s="12"/>
       <c r="H10" s="11">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="I10" s="11">
         <f>C10/H10</f>
-        <v>69.4915254237288</v>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="9">
         <f>$A10-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B11" s="13"/>
+        <v>43888</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
       <c r="C11" s="11">
         <f>100*B9</f>
-        <v>1200</v>
-      </c>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
+        <v>4100</v>
+      </c>
+      <c r="D11" s="11">
+        <f>C14+3*(C14-C15)</f>
+        <v>0</v>
+      </c>
+      <c r="E11" s="11">
+        <f>5*C14</f>
+        <v>0</v>
+      </c>
+      <c r="F11" s="11">
+        <f>20*C14</f>
+        <v>0</v>
+      </c>
       <c r="G11" s="11"/>
       <c r="H11" s="11">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="I11" s="11">
         <f>C11/H11</f>
-        <v>80</v>
+        <v>69.4915254237288</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="9">
         <f>$A11-7</f>
-        <v>43874</v>
+        <v>43881</v>
       </c>
       <c r="B12" s="13"/>
       <c r="C12" s="11">
         <f>100*B10</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I12" s="11">
         <f>C12/H12</f>
-        <v>7.14285714285714</v>
+        <v>80</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="9">
         <f>$A12-7</f>
-        <v>43867</v>
+        <v>43874</v>
       </c>
       <c r="B13" s="13"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="12"/>
+      <c r="C13" s="11">
+        <f>100*B11</f>
+        <v>100</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14">
-        <v>12</v>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11">
+        <v>14</v>
       </c>
       <c r="I13" s="11">
         <f>C13/H13</f>
-        <v>0</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="9">
         <f>$A13-7</f>
-        <v>43860</v>
+        <v>43867</v>
       </c>
       <c r="B14" s="13"/>
       <c r="C14" s="11"/>
@@ -1742,7 +1755,7 @@
       <c r="F14" s="12"/>
       <c r="G14" s="14"/>
       <c r="H14" s="14">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="I14" s="11">
         <f>C14/H14</f>
@@ -1750,15 +1763,18 @@
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="15"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="12"/>
+      <c r="A15" s="9">
+        <f>$A14-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="11"/>
       <c r="D15" s="12"/>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I15" s="11">
         <f>C15/H15</f>
@@ -1767,23 +1783,39 @@
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="15"/>
-      <c r="B16" t="s" s="17">
-        <v>9</v>
-      </c>
+      <c r="B16" s="16"/>
       <c r="C16" s="12"/>
       <c r="D16" s="12"/>
       <c r="E16" s="12"/>
       <c r="F16" s="12"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="11">
+        <f>C16/H16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="15"/>
+      <c r="B17" t="s" s="17">
+        <v>9</v>
+      </c>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:I1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B16" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B17" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
   <si>
     <t>Coronavirus Extrapolations</t>
   </si>
@@ -22,16 +22,19 @@
     <t>Deaths</t>
   </si>
   <si>
-    <t>Cases = Deaths x 100</t>
+    <t>Inferred Cases = Deaths x 100 Lagged 2 Weeks</t>
   </si>
   <si>
-    <t>Constant Weekly New Cases</t>
+    <t>Cases = 1.5 x Cases(-3)</t>
   </si>
   <si>
-    <t>Cases = 5 x Cases(-3)</t>
+    <t>Cases = 3 x Cases(-3)</t>
   </si>
   <si>
-    <t>Cases = 20 x Cases (-3)</t>
+    <t>Cases = 6 x Cases(-3)</t>
+  </si>
+  <si>
+    <t>Cases = 12 x Cases (-3)</t>
   </si>
   <si>
     <t>Confirmed Cases</t>
@@ -55,11 +58,13 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="0" formatCode="General"/>
     <numFmt numFmtId="59" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="60" formatCode="#,##0.0"/>
+    <numFmt numFmtId="61" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -80,6 +85,11 @@
       <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="13"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -228,7 +238,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -250,24 +260,39 @@
     <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="60" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="3" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="60" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -282,6 +307,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -304,6 +332,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffd69500"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1362,7 +1391,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1370,10 +1399,12 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="6" width="16.3516" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.36719" style="1" customWidth="1"/>
-    <col min="8" max="9" width="16.3516" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="2" width="13.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6484" style="1" customWidth="1"/>
+    <col min="4" max="7" width="9.71875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="6.19531" style="1" customWidth="1"/>
+    <col min="9" max="10" width="13.75" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="28.65" customHeight="1">
@@ -1388,8 +1419,9 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
-    <row r="2" ht="32.25" customHeight="1">
+    <row r="2" ht="44.25" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -1408,414 +1440,502 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" t="s" s="3">
+      <c r="G2" t="s" s="3">
         <v>7</v>
       </c>
+      <c r="H2" s="4"/>
       <c r="I2" t="s" s="3">
         <v>8</v>
+      </c>
+      <c r="J2" t="s" s="3">
+        <v>9</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5">
-        <v>43944</v>
+        <v>43958</v>
       </c>
       <c r="B3" s="6">
-        <v>50236</v>
-      </c>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7">
-        <f>C6+3*(C6-C7)</f>
-        <v>8833200</v>
-      </c>
-      <c r="E3" s="7">
-        <f>5*C6</f>
-        <v>17308500</v>
-      </c>
-      <c r="F3" s="7">
-        <f>20*C6</f>
-        <v>69234000</v>
-      </c>
+        <v>76928</v>
+      </c>
+      <c r="C3" s="7">
+        <f>I3*J3</f>
+        <v>9436147.9</v>
+      </c>
+      <c r="D3" s="8">
+        <f>C6*1.5</f>
+        <v>9578400</v>
+      </c>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
       <c r="G3" s="8"/>
-      <c r="H3" s="7">
-        <v>886442</v>
-      </c>
-      <c r="I3" s="7"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="8">
+        <v>1292623</v>
+      </c>
+      <c r="J3" s="10">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="9">
-        <v>43937</v>
-      </c>
-      <c r="B4" s="10">
-        <v>34617</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11">
-        <f>C7+3*(C7-C8)</f>
-        <v>4858400</v>
-      </c>
-      <c r="E4" s="11">
-        <f>5*C7</f>
-        <v>8356000</v>
-      </c>
-      <c r="F4" s="11">
-        <f>20*C7</f>
-        <v>33424000</v>
-      </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="11">
-        <v>639664</v>
-      </c>
-      <c r="I4" s="11"/>
+      <c r="A4" s="11">
+        <v>43951</v>
+      </c>
+      <c r="B4" s="12">
+        <v>63856</v>
+      </c>
+      <c r="C4" s="13">
+        <f>I4*J4</f>
+        <v>8541179.4</v>
+      </c>
+      <c r="D4" s="14">
+        <f>C7*1.5</f>
+        <v>7535400</v>
+      </c>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14">
+        <v>1095023</v>
+      </c>
+      <c r="J4" s="16">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="9">
-        <f>$A4-7</f>
-        <v>43930</v>
-      </c>
-      <c r="B5" s="10">
-        <v>16712</v>
-      </c>
-      <c r="C5" s="11">
+      <c r="A5" s="11">
+        <v>43944</v>
+      </c>
+      <c r="B5" s="12">
+        <v>50236</v>
+      </c>
+      <c r="C5" s="14">
         <f>100*B3</f>
-        <v>5023600</v>
-      </c>
-      <c r="D5" s="11">
-        <f>C8+3*(C8-C9)</f>
-        <v>2046400</v>
-      </c>
-      <c r="E5" s="11">
-        <f>5*C8</f>
-        <v>3044000</v>
-      </c>
-      <c r="F5" s="11">
-        <f>20*C8</f>
-        <v>12176000</v>
-      </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="11">
-        <v>432132</v>
-      </c>
-      <c r="I5" s="11">
-        <f>C5/H5</f>
-        <v>11.6251515740561</v>
+        <v>7692800</v>
+      </c>
+      <c r="D5" s="14">
+        <f>C8*1.5</f>
+        <v>5192550</v>
+      </c>
+      <c r="E5" s="14">
+        <f>3*C8</f>
+        <v>10385100</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14">
+        <v>886442</v>
+      </c>
+      <c r="J5" s="17">
+        <f>C5/I5</f>
+        <v>8.67828916048653</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="9">
-        <f>$A5-7</f>
-        <v>43923</v>
-      </c>
-      <c r="B6" s="10">
-        <v>6088</v>
-      </c>
-      <c r="C6" s="11">
+      <c r="A6" s="11">
+        <v>43937</v>
+      </c>
+      <c r="B6" s="12">
+        <v>34617</v>
+      </c>
+      <c r="C6" s="14">
         <f>100*B4</f>
-        <v>3461700</v>
-      </c>
-      <c r="D6" s="11">
-        <f>C9+3*(C9-C10)</f>
-        <v>456600</v>
-      </c>
-      <c r="E6" s="11">
-        <f>5*C9</f>
-        <v>648000</v>
-      </c>
-      <c r="F6" s="11">
-        <f>20*C9</f>
-        <v>2592000</v>
-      </c>
-      <c r="G6" s="12"/>
-      <c r="H6" s="11">
-        <v>216721</v>
-      </c>
-      <c r="I6" s="11">
-        <f>C6/H6</f>
-        <v>15.9730713682569</v>
+        <v>6385600</v>
+      </c>
+      <c r="D6" s="14">
+        <f>C9*1.5</f>
+        <v>2506800</v>
+      </c>
+      <c r="E6" s="14">
+        <f>3*C9</f>
+        <v>5013600</v>
+      </c>
+      <c r="F6" s="14">
+        <f>6*C9</f>
+        <v>10027200</v>
+      </c>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14">
+        <v>639664</v>
+      </c>
+      <c r="J6" s="17">
+        <f>C6/I6</f>
+        <v>9.98274093899297</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="9">
+      <c r="A7" s="11">
         <f>$A6-7</f>
-        <v>43916</v>
-      </c>
-      <c r="B7" s="10">
-        <v>1296</v>
-      </c>
-      <c r="C7" s="11">
+        <v>43930</v>
+      </c>
+      <c r="B7" s="12">
+        <v>16712</v>
+      </c>
+      <c r="C7" s="14">
         <f>100*B5</f>
-        <v>1671200</v>
-      </c>
-      <c r="D7" s="11">
-        <f>C10+3*(C10-C11)</f>
-        <v>70100</v>
-      </c>
-      <c r="E7" s="11">
-        <f>5*C10</f>
-        <v>103000</v>
-      </c>
-      <c r="F7" s="11">
-        <f>20*C10</f>
-        <v>412000</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="11">
-        <v>69194</v>
-      </c>
-      <c r="I7" s="11">
-        <f>C7/H7</f>
-        <v>24.1523831546088</v>
+        <v>5023600</v>
+      </c>
+      <c r="D7" s="14">
+        <f>C10*1.5</f>
+        <v>913200</v>
+      </c>
+      <c r="E7" s="14">
+        <f>3*C10</f>
+        <v>1826400</v>
+      </c>
+      <c r="F7" s="14">
+        <f>6*C10</f>
+        <v>3652800</v>
+      </c>
+      <c r="G7" s="14">
+        <f>F7*2</f>
+        <v>7305600</v>
+      </c>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14">
+        <v>432132</v>
+      </c>
+      <c r="J7" s="17">
+        <f>C7/I7</f>
+        <v>11.6251515740561</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="9">
+      <c r="A8" s="11">
         <f>$A7-7</f>
-        <v>43909</v>
-      </c>
-      <c r="B8" s="10">
-        <v>206</v>
-      </c>
-      <c r="C8" s="11">
+        <v>43923</v>
+      </c>
+      <c r="B8" s="12">
+        <v>6088</v>
+      </c>
+      <c r="C8" s="14">
         <f>100*B6</f>
-        <v>608800</v>
-      </c>
-      <c r="D8" s="11">
-        <f>C11+3*(C11-C12)</f>
-        <v>12800</v>
-      </c>
-      <c r="E8" s="11">
-        <f>5*C11</f>
-        <v>20500</v>
-      </c>
-      <c r="F8" s="11">
-        <f>20*C11</f>
-        <v>82000</v>
-      </c>
-      <c r="G8" s="12"/>
-      <c r="H8" s="11">
-        <v>9415</v>
-      </c>
-      <c r="I8" s="11">
-        <f>C8/H8</f>
-        <v>64.6627721720659</v>
+        <v>3461700</v>
+      </c>
+      <c r="D8" s="14">
+        <f>C11*1.5</f>
+        <v>194400</v>
+      </c>
+      <c r="E8" s="14">
+        <f>3*C11</f>
+        <v>388800</v>
+      </c>
+      <c r="F8" s="14">
+        <f>6*C11</f>
+        <v>777600</v>
+      </c>
+      <c r="G8" s="14">
+        <f>F8*2</f>
+        <v>1555200</v>
+      </c>
+      <c r="H8" s="15"/>
+      <c r="I8" s="14">
+        <v>216721</v>
+      </c>
+      <c r="J8" s="17">
+        <f>C8/I8</f>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="9">
+      <c r="A9" s="11">
         <f>$A8-7</f>
-        <v>43902</v>
-      </c>
-      <c r="B9" s="10">
-        <v>41</v>
-      </c>
-      <c r="C9" s="11">
+        <v>43916</v>
+      </c>
+      <c r="B9" s="12">
+        <v>1296</v>
+      </c>
+      <c r="C9" s="14">
         <f>100*B7</f>
-        <v>129600</v>
-      </c>
-      <c r="D9" s="11">
-        <f>C12+3*(C12-C13)</f>
-        <v>4500</v>
-      </c>
-      <c r="E9" s="11">
-        <f>5*C12</f>
-        <v>6000</v>
-      </c>
-      <c r="F9" s="11">
-        <f>20*C12</f>
-        <v>24000</v>
-      </c>
-      <c r="G9" s="12"/>
-      <c r="H9" s="11">
-        <v>1312</v>
-      </c>
-      <c r="I9" s="11">
-        <f>C9/H9</f>
-        <v>98.78048780487801</v>
+        <v>1671200</v>
+      </c>
+      <c r="D9" s="14">
+        <f>C12*1.5</f>
+        <v>30900</v>
+      </c>
+      <c r="E9" s="14">
+        <f>3*C12</f>
+        <v>61800</v>
+      </c>
+      <c r="F9" s="14">
+        <f>6*C12</f>
+        <v>123600</v>
+      </c>
+      <c r="G9" s="14">
+        <f>F9*2</f>
+        <v>247200</v>
+      </c>
+      <c r="H9" s="15"/>
+      <c r="I9" s="14">
+        <v>69194</v>
+      </c>
+      <c r="J9" s="17">
+        <f>C9/I9</f>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="9">
+      <c r="A10" s="11">
         <f>$A9-7</f>
-        <v>43895</v>
-      </c>
-      <c r="B10" s="10">
-        <v>12</v>
-      </c>
-      <c r="C10" s="11">
+        <v>43909</v>
+      </c>
+      <c r="B10" s="12">
+        <v>206</v>
+      </c>
+      <c r="C10" s="14">
         <f>100*B8</f>
-        <v>20600</v>
-      </c>
-      <c r="D10" s="11">
-        <f>C13+3*(C13-C14)</f>
-        <v>400</v>
-      </c>
-      <c r="E10" s="11">
-        <f>5*C13</f>
-        <v>500</v>
-      </c>
-      <c r="F10" s="11">
-        <f>20*C13</f>
-        <v>2000</v>
-      </c>
-      <c r="G10" s="12"/>
-      <c r="H10" s="11">
-        <v>159</v>
-      </c>
-      <c r="I10" s="11">
-        <f>C10/H10</f>
-        <v>129.559748427673</v>
+        <v>608800</v>
+      </c>
+      <c r="D10" s="14">
+        <f>C13*1.5</f>
+        <v>6150</v>
+      </c>
+      <c r="E10" s="14">
+        <f>3*C13</f>
+        <v>12300</v>
+      </c>
+      <c r="F10" s="14">
+        <f>6*C13</f>
+        <v>24600</v>
+      </c>
+      <c r="G10" s="14">
+        <f>F10*2</f>
+        <v>49200</v>
+      </c>
+      <c r="H10" s="15"/>
+      <c r="I10" s="14">
+        <v>9415</v>
+      </c>
+      <c r="J10" s="17">
+        <f>C10/I10</f>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="9">
+      <c r="A11" s="11">
         <f>$A10-7</f>
-        <v>43888</v>
-      </c>
-      <c r="B11" s="10">
-        <v>1</v>
-      </c>
-      <c r="C11" s="11">
+        <v>43902</v>
+      </c>
+      <c r="B11" s="12">
+        <v>41</v>
+      </c>
+      <c r="C11" s="14">
         <f>100*B9</f>
-        <v>4100</v>
-      </c>
-      <c r="D11" s="11">
-        <f>C14+3*(C14-C15)</f>
-        <v>0</v>
-      </c>
-      <c r="E11" s="11">
-        <f>5*C14</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="11">
-        <f>20*C14</f>
-        <v>0</v>
-      </c>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11">
-        <v>59</v>
-      </c>
-      <c r="I11" s="11">
-        <f>C11/H11</f>
-        <v>69.4915254237288</v>
+        <v>129600</v>
+      </c>
+      <c r="D11" s="14">
+        <f>C14*1.5</f>
+        <v>1800</v>
+      </c>
+      <c r="E11" s="14">
+        <f>3*C14</f>
+        <v>3600</v>
+      </c>
+      <c r="F11" s="14">
+        <f>6*C14</f>
+        <v>7200</v>
+      </c>
+      <c r="G11" s="14">
+        <f>F11*2</f>
+        <v>14400</v>
+      </c>
+      <c r="H11" s="15"/>
+      <c r="I11" s="14">
+        <v>1312</v>
+      </c>
+      <c r="J11" s="17">
+        <f>C11/I11</f>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="9">
+      <c r="A12" s="11">
         <f>$A11-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="11">
+        <v>43895</v>
+      </c>
+      <c r="B12" s="12">
+        <v>12</v>
+      </c>
+      <c r="C12" s="14">
         <f>100*B10</f>
+        <v>20600</v>
+      </c>
+      <c r="D12" s="14">
+        <f>C15*1.5</f>
+        <v>150</v>
+      </c>
+      <c r="E12" s="14">
+        <f>3*C15</f>
+        <v>300</v>
+      </c>
+      <c r="F12" s="14">
+        <f>6*C15</f>
+        <v>600</v>
+      </c>
+      <c r="G12" s="14">
+        <f>F12*2</f>
         <v>1200</v>
       </c>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11">
-        <v>15</v>
-      </c>
-      <c r="I12" s="11">
-        <f>C12/H12</f>
-        <v>80</v>
+      <c r="H12" s="15"/>
+      <c r="I12" s="14">
+        <v>159</v>
+      </c>
+      <c r="J12" s="17">
+        <f>C12/I12</f>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="9">
+      <c r="A13" s="11">
         <f>$A12-7</f>
-        <v>43874</v>
-      </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="11">
+        <v>43888</v>
+      </c>
+      <c r="B13" s="12">
+        <v>1</v>
+      </c>
+      <c r="C13" s="14">
         <f>100*B11</f>
-        <v>100</v>
-      </c>
-      <c r="D13" s="11"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11">
-        <v>14</v>
-      </c>
-      <c r="I13" s="11">
-        <f>C13/H13</f>
-        <v>7.14285714285714</v>
+        <v>4100</v>
+      </c>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14">
+        <v>59</v>
+      </c>
+      <c r="J13" s="17">
+        <f>C13/I13</f>
+        <v>69.4915254237288</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="9">
+      <c r="A14" s="11">
         <f>$A13-7</f>
-        <v>43867</v>
-      </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="12"/>
+        <v>43881</v>
+      </c>
+      <c r="B14" s="18"/>
+      <c r="C14" s="14">
+        <f>100*B12</f>
+        <v>1200</v>
+      </c>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
       <c r="G14" s="14"/>
-      <c r="H14" s="14">
-        <v>12</v>
-      </c>
-      <c r="I14" s="11">
-        <f>C14/H14</f>
-        <v>0</v>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14">
+        <v>15</v>
+      </c>
+      <c r="J14" s="17">
+        <f>C14/I14</f>
+        <v>80</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="9">
+      <c r="A15" s="11">
         <f>$A14-7</f>
-        <v>43860</v>
-      </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14">
-        <v>5</v>
-      </c>
-      <c r="I15" s="11">
-        <f>C15/H15</f>
-        <v>0</v>
+        <v>43874</v>
+      </c>
+      <c r="B15" s="18"/>
+      <c r="C15" s="14">
+        <f>100*B13</f>
+        <v>100</v>
+      </c>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
+        <v>14</v>
+      </c>
+      <c r="J15" s="17">
+        <f>C15/I15</f>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="15"/>
-      <c r="B16" s="16"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14">
-        <v>1</v>
-      </c>
-      <c r="I16" s="11">
-        <f>C16/H16</f>
+      <c r="A16" s="11">
+        <f>$A15-7</f>
+        <v>43867</v>
+      </c>
+      <c r="B16" s="18"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19">
+        <v>12</v>
+      </c>
+      <c r="J16" s="17">
+        <f>C16/I16</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="15"/>
-      <c r="B17" t="s" s="17">
-        <v>9</v>
-      </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
+      <c r="A17" s="11">
+        <f>$A16-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B17" s="18"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="19"/>
+      <c r="I17" s="19">
+        <v>5</v>
+      </c>
+      <c r="J17" s="17">
+        <f>C17/I17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19">
+        <v>1</v>
+      </c>
+      <c r="J18" s="17">
+        <f>C18/I18</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="20"/>
+      <c r="B19" t="s" s="22">
+        <v>10</v>
+      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19"/>
+      <c r="J19" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B17" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B19" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -64,7 +64,7 @@
     <numFmt numFmtId="60" formatCode="#,##0.0"/>
     <numFmt numFmtId="61" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -90,6 +90,11 @@
     <font>
       <sz val="10"/>
       <color indexed="13"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -257,28 +262,31 @@
     <xf numFmtId="59" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -287,22 +295,19 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -332,6 +337,7 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="fff27100"/>
       <rgbColor rgb="ffd69500"/>
     </indexedColors>
   </colors>
@@ -1391,7 +1397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J19"/>
+  <dimension ref="A2:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1453,489 +1459,515 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5">
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="B3" s="6">
-        <v>76928</v>
+        <v>85800</v>
       </c>
       <c r="C3" s="7">
         <f>I3*J3</f>
-        <v>9436147.9</v>
+        <v>10080000</v>
       </c>
       <c r="D3" s="8">
         <f>C6*1.5</f>
-        <v>9578400</v>
+        <v>11539200</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="8">
-        <v>1292623</v>
-      </c>
-      <c r="J3" s="10">
-        <v>7.3</v>
+      <c r="I3" s="10">
+        <v>1440000</v>
+      </c>
+      <c r="J3" s="11">
+        <v>7</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="11">
-        <v>43951</v>
-      </c>
-      <c r="B4" s="12">
-        <v>63856</v>
-      </c>
-      <c r="C4" s="13">
+      <c r="A4" s="12">
+        <v>43958</v>
+      </c>
+      <c r="B4" s="13">
+        <v>76928</v>
+      </c>
+      <c r="C4" s="14">
         <f>I4*J4</f>
-        <v>8541179.4</v>
-      </c>
-      <c r="D4" s="14">
+        <v>9436147.9</v>
+      </c>
+      <c r="D4" s="15">
         <f>C7*1.5</f>
-        <v>7535400</v>
-      </c>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14">
-        <v>1095023</v>
-      </c>
-      <c r="J4" s="16">
-        <v>7.8</v>
+        <v>9578400</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="15">
+        <v>1292623</v>
+      </c>
+      <c r="J4" s="17">
+        <v>7.3</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="11">
-        <v>43944</v>
-      </c>
-      <c r="B5" s="12">
-        <v>50236</v>
+      <c r="A5" s="12">
+        <v>43951</v>
+      </c>
+      <c r="B5" s="13">
+        <v>63856</v>
       </c>
       <c r="C5" s="14">
-        <f>100*B3</f>
-        <v>7692800</v>
-      </c>
-      <c r="D5" s="14">
+        <f>I5*J5</f>
+        <v>8541179.4</v>
+      </c>
+      <c r="D5" s="15">
         <f>C8*1.5</f>
-        <v>5192550</v>
-      </c>
-      <c r="E5" s="14">
-        <f>3*C8</f>
-        <v>10385100</v>
-      </c>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14">
-        <v>886442</v>
+        <v>7535400</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="15">
+        <v>1095023</v>
       </c>
       <c r="J5" s="17">
-        <f>C5/I5</f>
-        <v>8.67828916048653</v>
+        <v>7.8</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="11">
-        <v>43937</v>
-      </c>
-      <c r="B6" s="12">
-        <v>34617</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="A6" s="12">
+        <v>43944</v>
+      </c>
+      <c r="B6" s="13">
+        <v>50236</v>
+      </c>
+      <c r="C6" s="15">
         <f>100*B4</f>
-        <v>6385600</v>
-      </c>
-      <c r="D6" s="14">
+        <v>7692800</v>
+      </c>
+      <c r="D6" s="15">
         <f>C9*1.5</f>
-        <v>2506800</v>
-      </c>
-      <c r="E6" s="14">
+        <v>5192550</v>
+      </c>
+      <c r="E6" s="15">
         <f>3*C9</f>
-        <v>5013600</v>
-      </c>
-      <c r="F6" s="14">
-        <f>6*C9</f>
-        <v>10027200</v>
-      </c>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14">
-        <v>639664</v>
-      </c>
-      <c r="J6" s="17">
+        <v>10385100</v>
+      </c>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="15">
+        <v>886442</v>
+      </c>
+      <c r="J6" s="18">
         <f>C6/I6</f>
-        <v>9.98274093899297</v>
+        <v>8.67828916048653</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="11">
-        <f>$A6-7</f>
-        <v>43930</v>
-      </c>
-      <c r="B7" s="12">
-        <v>16712</v>
-      </c>
-      <c r="C7" s="14">
+      <c r="A7" s="12">
+        <v>43937</v>
+      </c>
+      <c r="B7" s="13">
+        <v>34617</v>
+      </c>
+      <c r="C7" s="15">
         <f>100*B5</f>
-        <v>5023600</v>
-      </c>
-      <c r="D7" s="14">
+        <v>6385600</v>
+      </c>
+      <c r="D7" s="15">
         <f>C10*1.5</f>
-        <v>913200</v>
-      </c>
-      <c r="E7" s="14">
+        <v>2506800</v>
+      </c>
+      <c r="E7" s="15">
         <f>3*C10</f>
-        <v>1826400</v>
-      </c>
-      <c r="F7" s="14">
+        <v>5013600</v>
+      </c>
+      <c r="F7" s="15">
         <f>6*C10</f>
-        <v>3652800</v>
-      </c>
-      <c r="G7" s="14">
-        <f>F7*2</f>
-        <v>7305600</v>
-      </c>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14">
-        <v>432132</v>
-      </c>
-      <c r="J7" s="17">
+        <v>10027200</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="15">
+        <v>639664</v>
+      </c>
+      <c r="J7" s="18">
         <f>C7/I7</f>
-        <v>11.6251515740561</v>
+        <v>9.98274093899297</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="12">
         <f>$A7-7</f>
-        <v>43923</v>
-      </c>
-      <c r="B8" s="12">
-        <v>6088</v>
-      </c>
-      <c r="C8" s="14">
+        <v>43930</v>
+      </c>
+      <c r="B8" s="13">
+        <v>16712</v>
+      </c>
+      <c r="C8" s="15">
         <f>100*B6</f>
-        <v>3461700</v>
-      </c>
-      <c r="D8" s="14">
+        <v>5023600</v>
+      </c>
+      <c r="D8" s="15">
         <f>C11*1.5</f>
-        <v>194400</v>
-      </c>
-      <c r="E8" s="14">
+        <v>913200</v>
+      </c>
+      <c r="E8" s="15">
         <f>3*C11</f>
-        <v>388800</v>
-      </c>
-      <c r="F8" s="14">
+        <v>1826400</v>
+      </c>
+      <c r="F8" s="15">
         <f>6*C11</f>
-        <v>777600</v>
-      </c>
-      <c r="G8" s="14">
+        <v>3652800</v>
+      </c>
+      <c r="G8" s="15">
         <f>F8*2</f>
-        <v>1555200</v>
-      </c>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14">
-        <v>216721</v>
-      </c>
-      <c r="J8" s="17">
+        <v>7305600</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="15">
+        <v>432132</v>
+      </c>
+      <c r="J8" s="18">
         <f>C8/I8</f>
-        <v>15.9730713682569</v>
+        <v>11.6251515740561</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="12">
         <f>$A8-7</f>
-        <v>43916</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1296</v>
-      </c>
-      <c r="C9" s="14">
+        <v>43923</v>
+      </c>
+      <c r="B9" s="13">
+        <v>6088</v>
+      </c>
+      <c r="C9" s="15">
         <f>100*B7</f>
-        <v>1671200</v>
-      </c>
-      <c r="D9" s="14">
+        <v>3461700</v>
+      </c>
+      <c r="D9" s="15">
         <f>C12*1.5</f>
-        <v>30900</v>
-      </c>
-      <c r="E9" s="14">
+        <v>194400</v>
+      </c>
+      <c r="E9" s="15">
         <f>3*C12</f>
-        <v>61800</v>
-      </c>
-      <c r="F9" s="14">
+        <v>388800</v>
+      </c>
+      <c r="F9" s="15">
         <f>6*C12</f>
-        <v>123600</v>
-      </c>
-      <c r="G9" s="14">
+        <v>777600</v>
+      </c>
+      <c r="G9" s="15">
         <f>F9*2</f>
-        <v>247200</v>
-      </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14">
-        <v>69194</v>
-      </c>
-      <c r="J9" s="17">
+        <v>1555200</v>
+      </c>
+      <c r="H9" s="16"/>
+      <c r="I9" s="15">
+        <v>216721</v>
+      </c>
+      <c r="J9" s="18">
         <f>C9/I9</f>
-        <v>24.1523831546088</v>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="12">
         <f>$A9-7</f>
-        <v>43909</v>
-      </c>
-      <c r="B10" s="12">
-        <v>206</v>
-      </c>
-      <c r="C10" s="14">
+        <v>43916</v>
+      </c>
+      <c r="B10" s="13">
+        <v>1296</v>
+      </c>
+      <c r="C10" s="15">
         <f>100*B8</f>
-        <v>608800</v>
-      </c>
-      <c r="D10" s="14">
+        <v>1671200</v>
+      </c>
+      <c r="D10" s="15">
         <f>C13*1.5</f>
-        <v>6150</v>
-      </c>
-      <c r="E10" s="14">
+        <v>30900</v>
+      </c>
+      <c r="E10" s="15">
         <f>3*C13</f>
-        <v>12300</v>
-      </c>
-      <c r="F10" s="14">
+        <v>61800</v>
+      </c>
+      <c r="F10" s="15">
         <f>6*C13</f>
-        <v>24600</v>
-      </c>
-      <c r="G10" s="14">
+        <v>123600</v>
+      </c>
+      <c r="G10" s="15">
         <f>F10*2</f>
-        <v>49200</v>
-      </c>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14">
-        <v>9415</v>
-      </c>
-      <c r="J10" s="17">
+        <v>247200</v>
+      </c>
+      <c r="H10" s="16"/>
+      <c r="I10" s="15">
+        <v>69194</v>
+      </c>
+      <c r="J10" s="18">
         <f>C10/I10</f>
-        <v>64.6627721720659</v>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="12">
         <f>$A10-7</f>
-        <v>43902</v>
-      </c>
-      <c r="B11" s="12">
-        <v>41</v>
-      </c>
-      <c r="C11" s="14">
+        <v>43909</v>
+      </c>
+      <c r="B11" s="13">
+        <v>206</v>
+      </c>
+      <c r="C11" s="15">
         <f>100*B9</f>
-        <v>129600</v>
-      </c>
-      <c r="D11" s="14">
+        <v>608800</v>
+      </c>
+      <c r="D11" s="15">
         <f>C14*1.5</f>
-        <v>1800</v>
-      </c>
-      <c r="E11" s="14">
+        <v>6150</v>
+      </c>
+      <c r="E11" s="15">
         <f>3*C14</f>
-        <v>3600</v>
-      </c>
-      <c r="F11" s="14">
+        <v>12300</v>
+      </c>
+      <c r="F11" s="15">
         <f>6*C14</f>
-        <v>7200</v>
-      </c>
-      <c r="G11" s="14">
+        <v>24600</v>
+      </c>
+      <c r="G11" s="15">
         <f>F11*2</f>
-        <v>14400</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14">
-        <v>1312</v>
-      </c>
-      <c r="J11" s="17">
+        <v>49200</v>
+      </c>
+      <c r="H11" s="16"/>
+      <c r="I11" s="15">
+        <v>9415</v>
+      </c>
+      <c r="J11" s="18">
         <f>C11/I11</f>
-        <v>98.78048780487801</v>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="12">
         <f>$A11-7</f>
-        <v>43895</v>
-      </c>
-      <c r="B12" s="12">
-        <v>12</v>
-      </c>
-      <c r="C12" s="14">
+        <v>43902</v>
+      </c>
+      <c r="B12" s="13">
+        <v>41</v>
+      </c>
+      <c r="C12" s="15">
         <f>100*B10</f>
-        <v>20600</v>
-      </c>
-      <c r="D12" s="14">
+        <v>129600</v>
+      </c>
+      <c r="D12" s="15">
         <f>C15*1.5</f>
-        <v>150</v>
-      </c>
-      <c r="E12" s="14">
+        <v>1800</v>
+      </c>
+      <c r="E12" s="15">
         <f>3*C15</f>
-        <v>300</v>
-      </c>
-      <c r="F12" s="14">
+        <v>3600</v>
+      </c>
+      <c r="F12" s="15">
         <f>6*C15</f>
-        <v>600</v>
-      </c>
-      <c r="G12" s="14">
+        <v>7200</v>
+      </c>
+      <c r="G12" s="15">
         <f>F12*2</f>
-        <v>1200</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14">
-        <v>159</v>
-      </c>
-      <c r="J12" s="17">
+        <v>14400</v>
+      </c>
+      <c r="H12" s="16"/>
+      <c r="I12" s="15">
+        <v>1312</v>
+      </c>
+      <c r="J12" s="18">
         <f>C12/I12</f>
-        <v>129.559748427673</v>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="12">
         <f>$A12-7</f>
-        <v>43888</v>
-      </c>
-      <c r="B13" s="12">
-        <v>1</v>
-      </c>
-      <c r="C13" s="14">
+        <v>43895</v>
+      </c>
+      <c r="B13" s="13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="15">
         <f>100*B11</f>
-        <v>4100</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14">
-        <v>59</v>
-      </c>
-      <c r="J13" s="17">
+        <v>20600</v>
+      </c>
+      <c r="D13" s="15">
+        <f>C16*1.5</f>
+        <v>150</v>
+      </c>
+      <c r="E13" s="15">
+        <f>3*C16</f>
+        <v>300</v>
+      </c>
+      <c r="F13" s="15">
+        <f>6*C16</f>
+        <v>600</v>
+      </c>
+      <c r="G13" s="15">
+        <f>F13*2</f>
+        <v>1200</v>
+      </c>
+      <c r="H13" s="16"/>
+      <c r="I13" s="15">
+        <v>159</v>
+      </c>
+      <c r="J13" s="18">
         <f>C13/I13</f>
-        <v>69.4915254237288</v>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="12">
         <f>$A13-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B14" s="18"/>
-      <c r="C14" s="14">
+        <v>43888</v>
+      </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
+      <c r="C14" s="15">
         <f>100*B12</f>
-        <v>1200</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14">
-        <v>15</v>
-      </c>
-      <c r="J14" s="17">
+        <v>4100</v>
+      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15">
+        <v>59</v>
+      </c>
+      <c r="J14" s="18">
         <f>C14/I14</f>
-        <v>80</v>
+        <v>69.4915254237288</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="12">
         <f>$A14-7</f>
-        <v>43874</v>
-      </c>
-      <c r="B15" s="18"/>
-      <c r="C15" s="14">
+        <v>43881</v>
+      </c>
+      <c r="B15" s="13"/>
+      <c r="C15" s="15">
         <f>100*B13</f>
-        <v>100</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
+        <v>1200</v>
+      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
       <c r="F15" s="15"/>
       <c r="G15" s="15"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14">
-        <v>14</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="H15" s="15"/>
+      <c r="I15" s="15">
+        <v>15</v>
+      </c>
+      <c r="J15" s="18">
         <f>C15/I15</f>
-        <v>7.14285714285714</v>
+        <v>80</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="12">
         <f>$A15-7</f>
-        <v>43867</v>
-      </c>
-      <c r="B16" s="18"/>
-      <c r="C16" s="14"/>
+        <v>43874</v>
+      </c>
+      <c r="B16" s="13"/>
+      <c r="C16" s="15">
+        <f>100*B14</f>
+        <v>100</v>
+      </c>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19">
-        <v>12</v>
-      </c>
-      <c r="J16" s="17">
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15">
+        <v>14</v>
+      </c>
+      <c r="J16" s="18">
         <f>C16/I16</f>
-        <v>0</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="12">
         <f>$A16-7</f>
-        <v>43860</v>
-      </c>
-      <c r="B17" s="18"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+        <v>43867</v>
+      </c>
+      <c r="B17" s="13"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
       <c r="H17" s="19"/>
       <c r="I17" s="19">
-        <v>5</v>
-      </c>
-      <c r="J17" s="17">
+        <v>12</v>
+      </c>
+      <c r="J17" s="18">
         <f>C17/I17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="A18" s="12">
+        <f>$A17-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B18" s="13"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
       <c r="H18" s="19"/>
       <c r="I18" s="19">
-        <v>1</v>
-      </c>
-      <c r="J18" s="17">
+        <v>5</v>
+      </c>
+      <c r="J18" s="18">
         <f>C18/I18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="20"/>
-      <c r="B19" t="s" s="22">
+      <c r="B19" s="21"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="16"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="19"/>
+      <c r="I19" s="19">
+        <v>1</v>
+      </c>
+      <c r="J19" s="18">
+        <f>C19/I19</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="20"/>
+      <c r="B20" t="s" s="22">
         <v>10</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="23"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="16"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="19"/>
+      <c r="I20" s="19"/>
+      <c r="J20" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B19" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B20" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -64,7 +64,7 @@
     <numFmt numFmtId="60" formatCode="#,##0.0"/>
     <numFmt numFmtId="61" formatCode="0.0"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -90,11 +90,6 @@
     <font>
       <sz val="10"/>
       <color indexed="13"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -243,7 +238,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -262,10 +257,10 @@
     <xf numFmtId="59" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -274,10 +269,7 @@
     <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="5" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -286,7 +278,7 @@
     <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -295,7 +287,7 @@
     <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="60" fontId="5" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="60" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -337,7 +329,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
-      <rgbColor rgb="fff27100"/>
       <rgbColor rgb="ffd69500"/>
     </indexedColors>
   </colors>
@@ -1462,7 +1453,7 @@
         <v>43965</v>
       </c>
       <c r="B3" s="6">
-        <v>85800</v>
+        <v>87000</v>
       </c>
       <c r="C3" s="7">
         <f>I3*J3</f>
@@ -1476,491 +1467,492 @@
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
-      <c r="I3" s="10">
+      <c r="I3" s="8">
         <v>1440000</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="10">
         <v>7</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>43958</v>
       </c>
-      <c r="B4" s="13">
+      <c r="B4" s="12">
         <v>76928</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="13">
         <f>I4*J4</f>
         <v>9436147.9</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="14">
         <f>C7*1.5</f>
         <v>9578400</v>
       </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15">
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="14">
         <v>1292623</v>
       </c>
-      <c r="J4" s="17">
+      <c r="J4" s="16">
         <v>7.3</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="12">
+      <c r="A5" s="11">
         <v>43951</v>
       </c>
-      <c r="B5" s="13">
+      <c r="B5" s="12">
         <v>63856</v>
       </c>
       <c r="C5" s="14">
-        <f>I5*J5</f>
-        <v>8541179.4</v>
-      </c>
-      <c r="D5" s="15">
+        <f>100*B3</f>
+        <v>8700000</v>
+      </c>
+      <c r="D5" s="14">
         <f>C8*1.5</f>
         <v>7535400</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15">
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="15"/>
+      <c r="I5" s="14">
         <v>1095023</v>
       </c>
       <c r="J5" s="17">
-        <v>7.8</v>
+        <f>C5/I5</f>
+        <v>7.9450385973628</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>43944</v>
       </c>
-      <c r="B6" s="13">
+      <c r="B6" s="12">
         <v>50236</v>
       </c>
-      <c r="C6" s="15">
+      <c r="C6" s="14">
         <f>100*B4</f>
         <v>7692800</v>
       </c>
-      <c r="D6" s="15">
+      <c r="D6" s="14">
         <f>C9*1.5</f>
         <v>5192550</v>
       </c>
-      <c r="E6" s="15">
+      <c r="E6" s="14">
         <f>3*C9</f>
         <v>10385100</v>
       </c>
-      <c r="F6" s="15"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15">
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="14">
         <v>886442</v>
       </c>
-      <c r="J6" s="18">
+      <c r="J6" s="17">
         <f>C6/I6</f>
         <v>8.67828916048653</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="12">
+      <c r="A7" s="11">
         <v>43937</v>
       </c>
-      <c r="B7" s="13">
+      <c r="B7" s="12">
         <v>34617</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="14">
         <f>100*B5</f>
         <v>6385600</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="14">
         <f>C10*1.5</f>
         <v>2506800</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="14">
         <f>3*C10</f>
         <v>5013600</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F7" s="14">
         <f>6*C10</f>
         <v>10027200</v>
       </c>
-      <c r="G7" s="15"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15">
+      <c r="G7" s="14"/>
+      <c r="H7" s="15"/>
+      <c r="I7" s="14">
         <v>639664</v>
       </c>
-      <c r="J7" s="18">
+      <c r="J7" s="17">
         <f>C7/I7</f>
         <v>9.98274093899297</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="12">
+      <c r="A8" s="11">
         <f>$A7-7</f>
         <v>43930</v>
       </c>
-      <c r="B8" s="13">
+      <c r="B8" s="12">
         <v>16712</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="14">
         <f>100*B6</f>
         <v>5023600</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="14">
         <f>C11*1.5</f>
         <v>913200</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="14">
         <f>3*C11</f>
         <v>1826400</v>
       </c>
-      <c r="F8" s="15">
+      <c r="F8" s="14">
         <f>6*C11</f>
         <v>3652800</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="14">
         <f>F8*2</f>
         <v>7305600</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15">
+      <c r="H8" s="15"/>
+      <c r="I8" s="14">
         <v>432132</v>
       </c>
-      <c r="J8" s="18">
+      <c r="J8" s="17">
         <f>C8/I8</f>
         <v>11.6251515740561</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="12">
+      <c r="A9" s="11">
         <f>$A8-7</f>
         <v>43923</v>
       </c>
-      <c r="B9" s="13">
+      <c r="B9" s="12">
         <v>6088</v>
       </c>
-      <c r="C9" s="15">
+      <c r="C9" s="14">
         <f>100*B7</f>
         <v>3461700</v>
       </c>
-      <c r="D9" s="15">
+      <c r="D9" s="14">
         <f>C12*1.5</f>
         <v>194400</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="14">
         <f>3*C12</f>
         <v>388800</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="14">
         <f>6*C12</f>
         <v>777600</v>
       </c>
-      <c r="G9" s="15">
+      <c r="G9" s="14">
         <f>F9*2</f>
         <v>1555200</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15">
+      <c r="H9" s="15"/>
+      <c r="I9" s="14">
         <v>216721</v>
       </c>
-      <c r="J9" s="18">
+      <c r="J9" s="17">
         <f>C9/I9</f>
         <v>15.9730713682569</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="12">
+      <c r="A10" s="11">
         <f>$A9-7</f>
         <v>43916</v>
       </c>
-      <c r="B10" s="13">
+      <c r="B10" s="12">
         <v>1296</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="14">
         <f>100*B8</f>
         <v>1671200</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="14">
         <f>C13*1.5</f>
         <v>30900</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="14">
         <f>3*C13</f>
         <v>61800</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="14">
         <f>6*C13</f>
         <v>123600</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="14">
         <f>F10*2</f>
         <v>247200</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15">
+      <c r="H10" s="15"/>
+      <c r="I10" s="14">
         <v>69194</v>
       </c>
-      <c r="J10" s="18">
+      <c r="J10" s="17">
         <f>C10/I10</f>
         <v>24.1523831546088</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="12">
+      <c r="A11" s="11">
         <f>$A10-7</f>
         <v>43909</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="12">
         <v>206</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="14">
         <f>100*B9</f>
         <v>608800</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="14">
         <f>C14*1.5</f>
         <v>6150</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="14">
         <f>3*C14</f>
         <v>12300</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="14">
         <f>6*C14</f>
         <v>24600</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="14">
         <f>F11*2</f>
         <v>49200</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15">
+      <c r="H11" s="15"/>
+      <c r="I11" s="14">
         <v>9415</v>
       </c>
-      <c r="J11" s="18">
+      <c r="J11" s="17">
         <f>C11/I11</f>
         <v>64.6627721720659</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <f>$A11-7</f>
         <v>43902</v>
       </c>
-      <c r="B12" s="13">
+      <c r="B12" s="12">
         <v>41</v>
       </c>
-      <c r="C12" s="15">
+      <c r="C12" s="14">
         <f>100*B10</f>
         <v>129600</v>
       </c>
-      <c r="D12" s="15">
+      <c r="D12" s="14">
         <f>C15*1.5</f>
         <v>1800</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="14">
         <f>3*C15</f>
         <v>3600</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="14">
         <f>6*C15</f>
         <v>7200</v>
       </c>
-      <c r="G12" s="15">
+      <c r="G12" s="14">
         <f>F12*2</f>
         <v>14400</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15">
+      <c r="H12" s="15"/>
+      <c r="I12" s="14">
         <v>1312</v>
       </c>
-      <c r="J12" s="18">
+      <c r="J12" s="17">
         <f>C12/I12</f>
         <v>98.78048780487801</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="12">
+      <c r="A13" s="11">
         <f>$A12-7</f>
         <v>43895</v>
       </c>
-      <c r="B13" s="13">
+      <c r="B13" s="12">
         <v>12</v>
       </c>
-      <c r="C13" s="15">
+      <c r="C13" s="14">
         <f>100*B11</f>
         <v>20600</v>
       </c>
-      <c r="D13" s="15">
+      <c r="D13" s="14">
         <f>C16*1.5</f>
         <v>150</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="14">
         <f>3*C16</f>
         <v>300</v>
       </c>
-      <c r="F13" s="15">
+      <c r="F13" s="14">
         <f>6*C16</f>
         <v>600</v>
       </c>
-      <c r="G13" s="15">
+      <c r="G13" s="14">
         <f>F13*2</f>
         <v>1200</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15">
+      <c r="H13" s="15"/>
+      <c r="I13" s="14">
         <v>159</v>
       </c>
-      <c r="J13" s="18">
+      <c r="J13" s="17">
         <f>C13/I13</f>
         <v>129.559748427673</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="12">
+      <c r="A14" s="11">
         <f>$A13-7</f>
         <v>43888</v>
       </c>
-      <c r="B14" s="13">
+      <c r="B14" s="12">
         <v>1</v>
       </c>
-      <c r="C14" s="15">
+      <c r="C14" s="14">
         <f>100*B12</f>
         <v>4100</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15">
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14">
         <v>59</v>
       </c>
-      <c r="J14" s="18">
+      <c r="J14" s="17">
         <f>C14/I14</f>
         <v>69.4915254237288</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="12">
+      <c r="A15" s="11">
         <f>$A14-7</f>
         <v>43881</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="15">
+      <c r="B15" s="12"/>
+      <c r="C15" s="14">
         <f>100*B13</f>
         <v>1200</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15">
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
         <v>15</v>
       </c>
-      <c r="J15" s="18">
+      <c r="J15" s="17">
         <f>C15/I15</f>
         <v>80</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="12">
+      <c r="A16" s="11">
         <f>$A15-7</f>
         <v>43874</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="15">
+      <c r="B16" s="12"/>
+      <c r="C16" s="14">
         <f>100*B14</f>
         <v>100</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="16"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15">
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14">
         <v>14</v>
       </c>
-      <c r="J16" s="18">
+      <c r="J16" s="17">
         <f>C16/I16</f>
         <v>7.14285714285714</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="12">
+      <c r="A17" s="11">
         <f>$A16-7</f>
         <v>43867</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="16"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19">
+      <c r="B17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
         <v>12</v>
       </c>
-      <c r="J17" s="18">
+      <c r="J17" s="17">
         <f>C17/I17</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="12">
+      <c r="A18" s="11">
         <f>$A17-7</f>
         <v>43860</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
-      <c r="G18" s="16"/>
-      <c r="H18" s="19"/>
-      <c r="I18" s="19">
+      <c r="B18" s="12"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18">
         <v>5</v>
       </c>
-      <c r="J18" s="18">
+      <c r="J18" s="17">
         <f>C18/I18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="20"/>
-      <c r="B19" s="21"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="16"/>
-      <c r="G19" s="16"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19">
+      <c r="A19" s="19"/>
+      <c r="B19" s="20"/>
+      <c r="C19" s="18"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18">
         <v>1</v>
       </c>
-      <c r="J19" s="18">
+      <c r="J19" s="17">
         <f>C19/I19</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="20"/>
-      <c r="B20" t="s" s="22">
+      <c r="A20" s="19"/>
+      <c r="B20" t="s" s="21">
         <v>10</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="16"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="23"/>
+      <c r="C20" s="18"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -1388,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J20"/>
+  <dimension ref="A2:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1450,25 +1450,26 @@
     </row>
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5">
-        <v>43965</v>
+        <f>$A4+7</f>
+        <v>43972</v>
       </c>
       <c r="B3" s="6">
-        <v>87000</v>
+        <v>96354</v>
       </c>
       <c r="C3" s="7">
         <f>I3*J3</f>
-        <v>10080000</v>
+        <v>11346279</v>
       </c>
       <c r="D3" s="8">
         <f>C6*1.5</f>
-        <v>11539200</v>
+        <v>13050000</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="8">
-        <v>1440000</v>
+        <v>1620897</v>
       </c>
       <c r="J3" s="10">
         <v>7</v>
@@ -1476,376 +1477,380 @@
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="11">
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="B4" s="12">
-        <v>76928</v>
+        <v>87000</v>
       </c>
       <c r="C4" s="13">
         <f>I4*J4</f>
-        <v>9436147.9</v>
+        <v>10368000</v>
       </c>
       <c r="D4" s="14">
         <f>C7*1.5</f>
-        <v>9578400</v>
+        <v>11539200</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
       <c r="I4" s="14">
-        <v>1292623</v>
+        <v>1440000</v>
       </c>
       <c r="J4" s="16">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="11">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="B5" s="12">
-        <v>63856</v>
+        <v>76928</v>
       </c>
       <c r="C5" s="14">
-        <f>100*B3</f>
-        <v>8700000</v>
+        <f>B3*100</f>
+        <v>9635400</v>
       </c>
       <c r="D5" s="14">
         <f>C8*1.5</f>
-        <v>7535400</v>
+        <v>9578400</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="14">
-        <v>1095023</v>
-      </c>
-      <c r="J5" s="17">
+        <v>1292623</v>
+      </c>
+      <c r="J5" s="16">
         <f>C5/I5</f>
-        <v>7.9450385973628</v>
+        <v>7.45414556293676</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="11">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B6" s="12">
-        <v>50236</v>
+        <v>63856</v>
       </c>
       <c r="C6" s="14">
         <f>100*B4</f>
-        <v>7692800</v>
+        <v>8700000</v>
       </c>
       <c r="D6" s="14">
         <f>C9*1.5</f>
-        <v>5192550</v>
-      </c>
-      <c r="E6" s="14">
-        <f>3*C9</f>
-        <v>10385100</v>
-      </c>
+        <v>7535400</v>
+      </c>
+      <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="14">
-        <v>886442</v>
+        <v>1095023</v>
       </c>
       <c r="J6" s="17">
         <f>C6/I6</f>
-        <v>8.67828916048653</v>
+        <v>7.9450385973628</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="11">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="B7" s="12">
-        <v>34617</v>
+        <v>50236</v>
       </c>
       <c r="C7" s="14">
         <f>100*B5</f>
-        <v>6385600</v>
+        <v>7692800</v>
       </c>
       <c r="D7" s="14">
         <f>C10*1.5</f>
-        <v>2506800</v>
+        <v>5192550</v>
       </c>
       <c r="E7" s="14">
         <f>3*C10</f>
-        <v>5013600</v>
-      </c>
-      <c r="F7" s="14">
-        <f>6*C10</f>
-        <v>10027200</v>
-      </c>
+        <v>10385100</v>
+      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="14">
-        <v>639664</v>
+        <v>886442</v>
       </c>
       <c r="J7" s="17">
         <f>C7/I7</f>
-        <v>9.98274093899297</v>
+        <v>8.67828916048653</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="11">
-        <f>$A7-7</f>
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B8" s="12">
-        <v>16712</v>
+        <v>34617</v>
       </c>
       <c r="C8" s="14">
         <f>100*B6</f>
-        <v>5023600</v>
+        <v>6385600</v>
       </c>
       <c r="D8" s="14">
         <f>C11*1.5</f>
-        <v>913200</v>
+        <v>2506800</v>
       </c>
       <c r="E8" s="14">
         <f>3*C11</f>
-        <v>1826400</v>
+        <v>5013600</v>
       </c>
       <c r="F8" s="14">
         <f>6*C11</f>
-        <v>3652800</v>
-      </c>
-      <c r="G8" s="14">
-        <f>F8*2</f>
-        <v>7305600</v>
-      </c>
+        <v>10027200</v>
+      </c>
+      <c r="G8" s="14"/>
       <c r="H8" s="15"/>
       <c r="I8" s="14">
-        <v>432132</v>
+        <v>639664</v>
       </c>
       <c r="J8" s="17">
         <f>C8/I8</f>
-        <v>11.6251515740561</v>
+        <v>9.98274093899297</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="11">
         <f>$A8-7</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="B9" s="12">
-        <v>6088</v>
+        <v>16712</v>
       </c>
       <c r="C9" s="14">
         <f>100*B7</f>
-        <v>3461700</v>
+        <v>5023600</v>
       </c>
       <c r="D9" s="14">
         <f>C12*1.5</f>
-        <v>194400</v>
+        <v>913200</v>
       </c>
       <c r="E9" s="14">
         <f>3*C12</f>
-        <v>388800</v>
+        <v>1826400</v>
       </c>
       <c r="F9" s="14">
         <f>6*C12</f>
-        <v>777600</v>
+        <v>3652800</v>
       </c>
       <c r="G9" s="14">
         <f>F9*2</f>
-        <v>1555200</v>
+        <v>7305600</v>
       </c>
       <c r="H9" s="15"/>
       <c r="I9" s="14">
-        <v>216721</v>
+        <v>432132</v>
       </c>
       <c r="J9" s="17">
         <f>C9/I9</f>
-        <v>15.9730713682569</v>
+        <v>11.6251515740561</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="11">
         <f>$A9-7</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="B10" s="12">
-        <v>1296</v>
+        <v>6088</v>
       </c>
       <c r="C10" s="14">
         <f>100*B8</f>
-        <v>1671200</v>
+        <v>3461700</v>
       </c>
       <c r="D10" s="14">
         <f>C13*1.5</f>
-        <v>30900</v>
+        <v>194400</v>
       </c>
       <c r="E10" s="14">
         <f>3*C13</f>
-        <v>61800</v>
+        <v>388800</v>
       </c>
       <c r="F10" s="14">
         <f>6*C13</f>
-        <v>123600</v>
+        <v>777600</v>
       </c>
       <c r="G10" s="14">
         <f>F10*2</f>
-        <v>247200</v>
+        <v>1555200</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="14">
-        <v>69194</v>
+        <v>216721</v>
       </c>
       <c r="J10" s="17">
         <f>C10/I10</f>
-        <v>24.1523831546088</v>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="11">
         <f>$A10-7</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B11" s="12">
-        <v>206</v>
+        <v>1296</v>
       </c>
       <c r="C11" s="14">
         <f>100*B9</f>
-        <v>608800</v>
+        <v>1671200</v>
       </c>
       <c r="D11" s="14">
         <f>C14*1.5</f>
-        <v>6150</v>
+        <v>30900</v>
       </c>
       <c r="E11" s="14">
         <f>3*C14</f>
-        <v>12300</v>
+        <v>61800</v>
       </c>
       <c r="F11" s="14">
         <f>6*C14</f>
-        <v>24600</v>
+        <v>123600</v>
       </c>
       <c r="G11" s="14">
         <f>F11*2</f>
-        <v>49200</v>
+        <v>247200</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="14">
-        <v>9415</v>
+        <v>69194</v>
       </c>
       <c r="J11" s="17">
         <f>C11/I11</f>
-        <v>64.6627721720659</v>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="11">
         <f>$A11-7</f>
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B12" s="12">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C12" s="14">
         <f>100*B10</f>
-        <v>129600</v>
+        <v>608800</v>
       </c>
       <c r="D12" s="14">
         <f>C15*1.5</f>
-        <v>1800</v>
+        <v>6150</v>
       </c>
       <c r="E12" s="14">
         <f>3*C15</f>
-        <v>3600</v>
+        <v>12300</v>
       </c>
       <c r="F12" s="14">
         <f>6*C15</f>
-        <v>7200</v>
+        <v>24600</v>
       </c>
       <c r="G12" s="14">
         <f>F12*2</f>
-        <v>14400</v>
+        <v>49200</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="14">
-        <v>1312</v>
+        <v>9415</v>
       </c>
       <c r="J12" s="17">
         <f>C12/I12</f>
-        <v>98.78048780487801</v>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="11">
         <f>$A12-7</f>
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="B13" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C13" s="14">
         <f>100*B11</f>
-        <v>20600</v>
+        <v>129600</v>
       </c>
       <c r="D13" s="14">
         <f>C16*1.5</f>
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="E13" s="14">
         <f>3*C16</f>
-        <v>300</v>
+        <v>3600</v>
       </c>
       <c r="F13" s="14">
         <f>6*C16</f>
-        <v>600</v>
+        <v>7200</v>
       </c>
       <c r="G13" s="14">
         <f>F13*2</f>
-        <v>1200</v>
+        <v>14400</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="14">
-        <v>159</v>
+        <v>1312</v>
       </c>
       <c r="J13" s="17">
         <f>C13/I13</f>
-        <v>129.559748427673</v>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="11">
         <f>$A13-7</f>
-        <v>43888</v>
+        <v>43895</v>
       </c>
       <c r="B14" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C14" s="14">
         <f>100*B12</f>
-        <v>4100</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
+        <v>20600</v>
+      </c>
+      <c r="D14" s="14">
+        <f>C17*1.5</f>
+        <v>150</v>
+      </c>
+      <c r="E14" s="14">
+        <f>3*C17</f>
+        <v>300</v>
+      </c>
+      <c r="F14" s="14">
+        <f>6*C17</f>
+        <v>600</v>
+      </c>
+      <c r="G14" s="14">
+        <f>F14*2</f>
+        <v>1200</v>
+      </c>
+      <c r="H14" s="15"/>
       <c r="I14" s="14">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="J14" s="17">
         <f>C14/I14</f>
-        <v>69.4915254237288</v>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="11">
         <f>$A14-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B15" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="B15" s="12">
+        <v>1</v>
+      </c>
       <c r="C15" s="14">
         <f>100*B13</f>
-        <v>1200</v>
+        <v>4100</v>
       </c>
       <c r="D15" s="14"/>
       <c r="E15" s="14"/>
@@ -1853,60 +1858,63 @@
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J15" s="17">
         <f>C15/I15</f>
-        <v>80</v>
+        <v>69.4915254237288</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="11">
         <f>$A15-7</f>
-        <v>43874</v>
+        <v>43881</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="14">
         <f>100*B14</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J16" s="17">
         <f>C16/I16</f>
-        <v>7.14285714285714</v>
+        <v>80</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="11">
         <f>$A16-7</f>
-        <v>43867</v>
+        <v>43874</v>
       </c>
       <c r="B17" s="12"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
+      <c r="C17" s="14">
+        <f>100*B15</f>
+        <v>100</v>
+      </c>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
       <c r="F17" s="15"/>
       <c r="G17" s="15"/>
-      <c r="H17" s="18"/>
-      <c r="I17" s="18">
-        <v>12</v>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14">
+        <v>14</v>
       </c>
       <c r="J17" s="17">
         <f>C17/I17</f>
-        <v>0</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="11">
         <f>$A17-7</f>
-        <v>43860</v>
+        <v>43867</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="14"/>
@@ -1916,7 +1924,7 @@
       <c r="G18" s="15"/>
       <c r="H18" s="18"/>
       <c r="I18" s="18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J18" s="17">
         <f>C18/I18</f>
@@ -1924,16 +1932,19 @@
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="19"/>
-      <c r="B19" s="20"/>
-      <c r="C19" s="18"/>
+      <c r="A19" s="11">
+        <f>$A18-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J19" s="17">
         <f>C19/I19</f>
@@ -1942,24 +1953,41 @@
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="19"/>
-      <c r="B20" t="s" s="21">
-        <v>10</v>
-      </c>
+      <c r="B20" s="20"/>
       <c r="C20" s="18"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="18"/>
-      <c r="I20" s="18"/>
-      <c r="J20" s="22"/>
+      <c r="I20" s="18">
+        <v>1</v>
+      </c>
+      <c r="J20" s="17">
+        <f>C20/I20</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" s="19"/>
+      <c r="B21" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B20" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B21" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -1388,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J21"/>
+  <dimension ref="A2:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1451,429 +1451,433 @@
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5">
         <f>$A4+7</f>
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="B3" s="6">
-        <v>96354</v>
+        <v>103600</v>
       </c>
       <c r="C3" s="7">
         <f>I3*J3</f>
-        <v>11346279</v>
+        <v>12002000</v>
       </c>
       <c r="D3" s="8">
         <f>C6*1.5</f>
-        <v>13050000</v>
+        <v>14453100</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="8">
-        <v>1620897</v>
+        <v>1765000</v>
       </c>
       <c r="J3" s="10">
-        <v>7</v>
+        <v>6.8</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="11">
-        <v>43965</v>
+        <f>$A5+7</f>
+        <v>43972</v>
       </c>
       <c r="B4" s="12">
-        <v>87000</v>
+        <v>96354</v>
       </c>
       <c r="C4" s="13">
         <f>I4*J4</f>
-        <v>10368000</v>
+        <v>11346279</v>
       </c>
       <c r="D4" s="14">
         <f>C7*1.5</f>
-        <v>11539200</v>
+        <v>13050000</v>
       </c>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
       <c r="I4" s="14">
-        <v>1440000</v>
+        <v>1620897</v>
       </c>
       <c r="J4" s="16">
-        <v>7.2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="11">
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="B5" s="12">
-        <v>76928</v>
+        <v>87000</v>
       </c>
       <c r="C5" s="14">
-        <f>B3*100</f>
-        <v>9635400</v>
+        <v>10360000</v>
       </c>
       <c r="D5" s="14">
         <f>C8*1.5</f>
-        <v>9578400</v>
+        <v>11539200</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="14">
-        <v>1292623</v>
-      </c>
-      <c r="J5" s="16">
+        <v>1440000</v>
+      </c>
+      <c r="J5" s="17">
         <f>C5/I5</f>
-        <v>7.45414556293676</v>
+        <v>7.19444444444444</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="11">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="B6" s="12">
-        <v>63856</v>
+        <v>76928</v>
       </c>
       <c r="C6" s="14">
-        <f>100*B4</f>
-        <v>8700000</v>
+        <f>B4*100</f>
+        <v>9635400</v>
       </c>
       <c r="D6" s="14">
         <f>C9*1.5</f>
-        <v>7535400</v>
+        <v>9578400</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="14">
-        <v>1095023</v>
+        <v>1292623</v>
       </c>
       <c r="J6" s="17">
         <f>C6/I6</f>
-        <v>7.9450385973628</v>
+        <v>7.45414556293676</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="11">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B7" s="12">
-        <v>50236</v>
+        <v>63856</v>
       </c>
       <c r="C7" s="14">
         <f>100*B5</f>
-        <v>7692800</v>
+        <v>8700000</v>
       </c>
       <c r="D7" s="14">
         <f>C10*1.5</f>
-        <v>5192550</v>
-      </c>
-      <c r="E7" s="14">
-        <f>3*C10</f>
-        <v>10385100</v>
-      </c>
+        <v>7535400</v>
+      </c>
+      <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="14">
-        <v>886442</v>
+        <v>1095023</v>
       </c>
       <c r="J7" s="17">
         <f>C7/I7</f>
-        <v>8.67828916048653</v>
+        <v>7.9450385973628</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="11">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="B8" s="12">
-        <v>34617</v>
+        <v>50236</v>
       </c>
       <c r="C8" s="14">
         <f>100*B6</f>
-        <v>6385600</v>
+        <v>7692800</v>
       </c>
       <c r="D8" s="14">
         <f>C11*1.5</f>
-        <v>2506800</v>
+        <v>5192550</v>
       </c>
       <c r="E8" s="14">
         <f>3*C11</f>
-        <v>5013600</v>
-      </c>
-      <c r="F8" s="14">
-        <f>6*C11</f>
-        <v>10027200</v>
-      </c>
+        <v>10385100</v>
+      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
       <c r="I8" s="14">
-        <v>639664</v>
+        <v>886442</v>
       </c>
       <c r="J8" s="17">
         <f>C8/I8</f>
-        <v>9.98274093899297</v>
+        <v>8.67828916048653</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="11">
-        <f>$A8-7</f>
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B9" s="12">
-        <v>16712</v>
+        <v>34617</v>
       </c>
       <c r="C9" s="14">
         <f>100*B7</f>
-        <v>5023600</v>
+        <v>6385600</v>
       </c>
       <c r="D9" s="14">
         <f>C12*1.5</f>
-        <v>913200</v>
+        <v>2506800</v>
       </c>
       <c r="E9" s="14">
         <f>3*C12</f>
-        <v>1826400</v>
+        <v>5013600</v>
       </c>
       <c r="F9" s="14">
         <f>6*C12</f>
-        <v>3652800</v>
-      </c>
-      <c r="G9" s="14">
-        <f>F9*2</f>
-        <v>7305600</v>
-      </c>
+        <v>10027200</v>
+      </c>
+      <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="14">
-        <v>432132</v>
+        <v>639664</v>
       </c>
       <c r="J9" s="17">
         <f>C9/I9</f>
-        <v>11.6251515740561</v>
+        <v>9.98274093899297</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="11">
         <f>$A9-7</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="B10" s="12">
-        <v>6088</v>
+        <v>16712</v>
       </c>
       <c r="C10" s="14">
         <f>100*B8</f>
-        <v>3461700</v>
+        <v>5023600</v>
       </c>
       <c r="D10" s="14">
         <f>C13*1.5</f>
-        <v>194400</v>
+        <v>913200</v>
       </c>
       <c r="E10" s="14">
         <f>3*C13</f>
-        <v>388800</v>
+        <v>1826400</v>
       </c>
       <c r="F10" s="14">
         <f>6*C13</f>
-        <v>777600</v>
+        <v>3652800</v>
       </c>
       <c r="G10" s="14">
         <f>F10*2</f>
-        <v>1555200</v>
+        <v>7305600</v>
       </c>
       <c r="H10" s="15"/>
       <c r="I10" s="14">
-        <v>216721</v>
+        <v>432132</v>
       </c>
       <c r="J10" s="17">
         <f>C10/I10</f>
-        <v>15.9730713682569</v>
+        <v>11.6251515740561</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="11">
         <f>$A10-7</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="B11" s="12">
-        <v>1296</v>
+        <v>6088</v>
       </c>
       <c r="C11" s="14">
         <f>100*B9</f>
-        <v>1671200</v>
+        <v>3461700</v>
       </c>
       <c r="D11" s="14">
         <f>C14*1.5</f>
-        <v>30900</v>
+        <v>194400</v>
       </c>
       <c r="E11" s="14">
         <f>3*C14</f>
-        <v>61800</v>
+        <v>388800</v>
       </c>
       <c r="F11" s="14">
         <f>6*C14</f>
-        <v>123600</v>
+        <v>777600</v>
       </c>
       <c r="G11" s="14">
         <f>F11*2</f>
-        <v>247200</v>
+        <v>1555200</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="14">
-        <v>69194</v>
+        <v>216721</v>
       </c>
       <c r="J11" s="17">
         <f>C11/I11</f>
-        <v>24.1523831546088</v>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="11">
         <f>$A11-7</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B12" s="12">
-        <v>206</v>
+        <v>1296</v>
       </c>
       <c r="C12" s="14">
         <f>100*B10</f>
-        <v>608800</v>
+        <v>1671200</v>
       </c>
       <c r="D12" s="14">
         <f>C15*1.5</f>
-        <v>6150</v>
+        <v>30900</v>
       </c>
       <c r="E12" s="14">
         <f>3*C15</f>
-        <v>12300</v>
+        <v>61800</v>
       </c>
       <c r="F12" s="14">
         <f>6*C15</f>
-        <v>24600</v>
+        <v>123600</v>
       </c>
       <c r="G12" s="14">
         <f>F12*2</f>
-        <v>49200</v>
+        <v>247200</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="14">
-        <v>9415</v>
+        <v>69194</v>
       </c>
       <c r="J12" s="17">
         <f>C12/I12</f>
-        <v>64.6627721720659</v>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="11">
         <f>$A12-7</f>
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B13" s="12">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C13" s="14">
         <f>100*B11</f>
-        <v>129600</v>
+        <v>608800</v>
       </c>
       <c r="D13" s="14">
         <f>C16*1.5</f>
-        <v>1800</v>
+        <v>6150</v>
       </c>
       <c r="E13" s="14">
         <f>3*C16</f>
-        <v>3600</v>
+        <v>12300</v>
       </c>
       <c r="F13" s="14">
         <f>6*C16</f>
-        <v>7200</v>
+        <v>24600</v>
       </c>
       <c r="G13" s="14">
         <f>F13*2</f>
-        <v>14400</v>
+        <v>49200</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="14">
-        <v>1312</v>
+        <v>9415</v>
       </c>
       <c r="J13" s="17">
         <f>C13/I13</f>
-        <v>98.78048780487801</v>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="11">
         <f>$A13-7</f>
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="B14" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C14" s="14">
         <f>100*B12</f>
-        <v>20600</v>
+        <v>129600</v>
       </c>
       <c r="D14" s="14">
         <f>C17*1.5</f>
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="E14" s="14">
         <f>3*C17</f>
-        <v>300</v>
+        <v>3600</v>
       </c>
       <c r="F14" s="14">
         <f>6*C17</f>
-        <v>600</v>
+        <v>7200</v>
       </c>
       <c r="G14" s="14">
         <f>F14*2</f>
-        <v>1200</v>
+        <v>14400</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="14">
-        <v>159</v>
+        <v>1312</v>
       </c>
       <c r="J14" s="17">
         <f>C14/I14</f>
-        <v>129.559748427673</v>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="11">
         <f>$A14-7</f>
-        <v>43888</v>
+        <v>43895</v>
       </c>
       <c r="B15" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C15" s="14">
         <f>100*B13</f>
-        <v>4100</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
+        <v>20600</v>
+      </c>
+      <c r="D15" s="14">
+        <f>C18*1.5</f>
+        <v>150</v>
+      </c>
+      <c r="E15" s="14">
+        <f>3*C18</f>
+        <v>300</v>
+      </c>
+      <c r="F15" s="14">
+        <f>6*C18</f>
+        <v>600</v>
+      </c>
+      <c r="G15" s="14">
+        <f>F15*2</f>
+        <v>1200</v>
+      </c>
+      <c r="H15" s="15"/>
       <c r="I15" s="14">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="J15" s="17">
         <f>C15/I15</f>
-        <v>69.4915254237288</v>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="11">
         <f>$A15-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B16" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="B16" s="12">
+        <v>1</v>
+      </c>
       <c r="C16" s="14">
         <f>100*B14</f>
-        <v>1200</v>
+        <v>4100</v>
       </c>
       <c r="D16" s="14"/>
       <c r="E16" s="14"/>
@@ -1881,60 +1885,63 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
       <c r="I16" s="14">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J16" s="17">
         <f>C16/I16</f>
-        <v>80</v>
+        <v>69.4915254237288</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="11">
         <f>$A16-7</f>
-        <v>43874</v>
+        <v>43881</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="14">
         <f>100*B15</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J17" s="17">
         <f>C17/I17</f>
-        <v>7.14285714285714</v>
+        <v>80</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="11">
         <f>$A17-7</f>
-        <v>43867</v>
+        <v>43874</v>
       </c>
       <c r="B18" s="12"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
+      <c r="C18" s="14">
+        <f>100*B16</f>
+        <v>100</v>
+      </c>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
       <c r="F18" s="15"/>
       <c r="G18" s="15"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="18">
-        <v>12</v>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14">
+        <v>14</v>
       </c>
       <c r="J18" s="17">
         <f>C18/I18</f>
-        <v>0</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="11">
         <f>$A18-7</f>
-        <v>43860</v>
+        <v>43867</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="14"/>
@@ -1944,7 +1951,7 @@
       <c r="G19" s="15"/>
       <c r="H19" s="18"/>
       <c r="I19" s="18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J19" s="17">
         <f>C19/I19</f>
@@ -1952,16 +1959,19 @@
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="19"/>
-      <c r="B20" s="20"/>
-      <c r="C20" s="18"/>
+      <c r="A20" s="11">
+        <f>$A19-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="14"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
       <c r="F20" s="15"/>
       <c r="G20" s="15"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J20" s="17">
         <f>C20/I20</f>
@@ -1970,24 +1980,41 @@
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="19"/>
-      <c r="B21" t="s" s="21">
-        <v>10</v>
-      </c>
+      <c r="B21" s="20"/>
       <c r="C21" s="18"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="18"/>
-      <c r="I21" s="18"/>
-      <c r="J21" s="22"/>
+      <c r="I21" s="18">
+        <v>1</v>
+      </c>
+      <c r="J21" s="17">
+        <f>C21/I21</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="C22" s="18"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B21" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B22" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -1388,7 +1388,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J22"/>
+  <dimension ref="A2:J23"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1451,456 +1451,455 @@
     <row r="3" ht="20.25" customHeight="1">
       <c r="A3" s="5">
         <f>$A4+7</f>
-        <v>43979</v>
+        <v>43986</v>
       </c>
       <c r="B3" s="6">
-        <v>103600</v>
+        <v>110173</v>
       </c>
       <c r="C3" s="7">
         <f>I3*J3</f>
-        <v>12002000</v>
-      </c>
-      <c r="D3" s="8">
-        <f>C6*1.5</f>
-        <v>14453100</v>
-      </c>
+        <v>12121521.3</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
       <c r="H3" s="9"/>
       <c r="I3" s="8">
-        <v>1765000</v>
+        <v>1924051</v>
       </c>
       <c r="J3" s="10">
-        <v>6.8</v>
+        <v>6.3</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
       <c r="A4" s="11">
         <f>$A5+7</f>
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="B4" s="12">
-        <v>96354</v>
+        <v>103600</v>
       </c>
       <c r="C4" s="13">
         <f>I4*J4</f>
-        <v>11346279</v>
-      </c>
-      <c r="D4" s="14">
-        <f>C7*1.5</f>
-        <v>13050000</v>
-      </c>
+        <v>11472500</v>
+      </c>
+      <c r="D4" s="14"/>
       <c r="E4" s="14"/>
       <c r="F4" s="14"/>
       <c r="G4" s="14"/>
       <c r="H4" s="15"/>
       <c r="I4" s="14">
-        <v>1620897</v>
+        <v>1765000</v>
       </c>
       <c r="J4" s="16">
-        <v>7</v>
+        <v>6.5</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="11">
-        <v>43965</v>
+        <f>$A6+7</f>
+        <v>43972</v>
       </c>
       <c r="B5" s="12">
-        <v>87000</v>
+        <v>96354</v>
       </c>
       <c r="C5" s="14">
-        <v>10360000</v>
+        <f>B3*100</f>
+        <v>11017300</v>
       </c>
       <c r="D5" s="14">
         <f>C8*1.5</f>
-        <v>11539200</v>
+        <v>13050000</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
       <c r="H5" s="15"/>
       <c r="I5" s="14">
-        <v>1440000</v>
+        <v>1620897</v>
       </c>
       <c r="J5" s="17">
         <f>C5/I5</f>
-        <v>7.19444444444444</v>
+        <v>6.79703892350964</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="11">
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="B6" s="12">
-        <v>76928</v>
+        <v>87000</v>
       </c>
       <c r="C6" s="14">
-        <f>B4*100</f>
-        <v>9635400</v>
+        <v>10360000</v>
       </c>
       <c r="D6" s="14">
         <f>C9*1.5</f>
-        <v>9578400</v>
+        <v>11539200</v>
       </c>
       <c r="E6" s="14"/>
       <c r="F6" s="14"/>
       <c r="G6" s="14"/>
       <c r="H6" s="15"/>
       <c r="I6" s="14">
-        <v>1292623</v>
+        <v>1440000</v>
       </c>
       <c r="J6" s="17">
         <f>C6/I6</f>
-        <v>7.45414556293676</v>
+        <v>7.19444444444444</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="11">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="B7" s="12">
-        <v>63856</v>
+        <v>76928</v>
       </c>
       <c r="C7" s="14">
-        <f>100*B5</f>
-        <v>8700000</v>
+        <f>B5*100</f>
+        <v>9635400</v>
       </c>
       <c r="D7" s="14">
         <f>C10*1.5</f>
-        <v>7535400</v>
+        <v>9578400</v>
       </c>
       <c r="E7" s="14"/>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
       <c r="H7" s="15"/>
       <c r="I7" s="14">
-        <v>1095023</v>
+        <v>1292623</v>
       </c>
       <c r="J7" s="17">
         <f>C7/I7</f>
-        <v>7.9450385973628</v>
+        <v>7.45414556293676</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="11">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B8" s="12">
-        <v>50236</v>
+        <v>63856</v>
       </c>
       <c r="C8" s="14">
         <f>100*B6</f>
-        <v>7692800</v>
+        <v>8700000</v>
       </c>
       <c r="D8" s="14">
         <f>C11*1.5</f>
-        <v>5192550</v>
-      </c>
-      <c r="E8" s="14">
-        <f>3*C11</f>
-        <v>10385100</v>
-      </c>
+        <v>7535400</v>
+      </c>
+      <c r="E8" s="14"/>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="15"/>
       <c r="I8" s="14">
-        <v>886442</v>
+        <v>1095023</v>
       </c>
       <c r="J8" s="17">
         <f>C8/I8</f>
-        <v>8.67828916048653</v>
+        <v>7.9450385973628</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="11">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="B9" s="12">
-        <v>34617</v>
+        <v>50236</v>
       </c>
       <c r="C9" s="14">
         <f>100*B7</f>
-        <v>6385600</v>
+        <v>7692800</v>
       </c>
       <c r="D9" s="14">
         <f>C12*1.5</f>
-        <v>2506800</v>
+        <v>5192550</v>
       </c>
       <c r="E9" s="14">
         <f>3*C12</f>
-        <v>5013600</v>
-      </c>
-      <c r="F9" s="14">
-        <f>6*C12</f>
-        <v>10027200</v>
-      </c>
+        <v>10385100</v>
+      </c>
+      <c r="F9" s="14"/>
       <c r="G9" s="14"/>
       <c r="H9" s="15"/>
       <c r="I9" s="14">
-        <v>639664</v>
+        <v>886442</v>
       </c>
       <c r="J9" s="17">
         <f>C9/I9</f>
-        <v>9.98274093899297</v>
+        <v>8.67828916048653</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="11">
-        <f>$A9-7</f>
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B10" s="12">
-        <v>16712</v>
+        <v>34617</v>
       </c>
       <c r="C10" s="14">
         <f>100*B8</f>
-        <v>5023600</v>
+        <v>6385600</v>
       </c>
       <c r="D10" s="14">
         <f>C13*1.5</f>
-        <v>913200</v>
+        <v>2506800</v>
       </c>
       <c r="E10" s="14">
         <f>3*C13</f>
-        <v>1826400</v>
+        <v>5013600</v>
       </c>
       <c r="F10" s="14">
         <f>6*C13</f>
-        <v>3652800</v>
-      </c>
-      <c r="G10" s="14">
-        <f>F10*2</f>
-        <v>7305600</v>
-      </c>
+        <v>10027200</v>
+      </c>
+      <c r="G10" s="14"/>
       <c r="H10" s="15"/>
       <c r="I10" s="14">
-        <v>432132</v>
+        <v>639664</v>
       </c>
       <c r="J10" s="17">
         <f>C10/I10</f>
-        <v>11.6251515740561</v>
+        <v>9.98274093899297</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="11">
         <f>$A10-7</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="B11" s="12">
-        <v>6088</v>
+        <v>16712</v>
       </c>
       <c r="C11" s="14">
         <f>100*B9</f>
-        <v>3461700</v>
+        <v>5023600</v>
       </c>
       <c r="D11" s="14">
         <f>C14*1.5</f>
-        <v>194400</v>
+        <v>913200</v>
       </c>
       <c r="E11" s="14">
         <f>3*C14</f>
-        <v>388800</v>
+        <v>1826400</v>
       </c>
       <c r="F11" s="14">
         <f>6*C14</f>
-        <v>777600</v>
+        <v>3652800</v>
       </c>
       <c r="G11" s="14">
         <f>F11*2</f>
-        <v>1555200</v>
+        <v>7305600</v>
       </c>
       <c r="H11" s="15"/>
       <c r="I11" s="14">
-        <v>216721</v>
+        <v>432132</v>
       </c>
       <c r="J11" s="17">
         <f>C11/I11</f>
-        <v>15.9730713682569</v>
+        <v>11.6251515740561</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="11">
         <f>$A11-7</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="B12" s="12">
-        <v>1296</v>
+        <v>6088</v>
       </c>
       <c r="C12" s="14">
         <f>100*B10</f>
-        <v>1671200</v>
+        <v>3461700</v>
       </c>
       <c r="D12" s="14">
         <f>C15*1.5</f>
-        <v>30900</v>
+        <v>194400</v>
       </c>
       <c r="E12" s="14">
         <f>3*C15</f>
-        <v>61800</v>
+        <v>388800</v>
       </c>
       <c r="F12" s="14">
         <f>6*C15</f>
-        <v>123600</v>
+        <v>777600</v>
       </c>
       <c r="G12" s="14">
         <f>F12*2</f>
-        <v>247200</v>
+        <v>1555200</v>
       </c>
       <c r="H12" s="15"/>
       <c r="I12" s="14">
-        <v>69194</v>
+        <v>216721</v>
       </c>
       <c r="J12" s="17">
         <f>C12/I12</f>
-        <v>24.1523831546088</v>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="11">
         <f>$A12-7</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B13" s="12">
-        <v>206</v>
+        <v>1296</v>
       </c>
       <c r="C13" s="14">
         <f>100*B11</f>
-        <v>608800</v>
+        <v>1671200</v>
       </c>
       <c r="D13" s="14">
         <f>C16*1.5</f>
-        <v>6150</v>
+        <v>30900</v>
       </c>
       <c r="E13" s="14">
         <f>3*C16</f>
-        <v>12300</v>
+        <v>61800</v>
       </c>
       <c r="F13" s="14">
         <f>6*C16</f>
-        <v>24600</v>
+        <v>123600</v>
       </c>
       <c r="G13" s="14">
         <f>F13*2</f>
-        <v>49200</v>
+        <v>247200</v>
       </c>
       <c r="H13" s="15"/>
       <c r="I13" s="14">
-        <v>9415</v>
+        <v>69194</v>
       </c>
       <c r="J13" s="17">
         <f>C13/I13</f>
-        <v>64.6627721720659</v>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="11">
         <f>$A13-7</f>
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B14" s="12">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="C14" s="14">
         <f>100*B12</f>
-        <v>129600</v>
+        <v>608800</v>
       </c>
       <c r="D14" s="14">
         <f>C17*1.5</f>
-        <v>1800</v>
+        <v>6150</v>
       </c>
       <c r="E14" s="14">
         <f>3*C17</f>
-        <v>3600</v>
+        <v>12300</v>
       </c>
       <c r="F14" s="14">
         <f>6*C17</f>
-        <v>7200</v>
+        <v>24600</v>
       </c>
       <c r="G14" s="14">
         <f>F14*2</f>
-        <v>14400</v>
+        <v>49200</v>
       </c>
       <c r="H14" s="15"/>
       <c r="I14" s="14">
-        <v>1312</v>
+        <v>9415</v>
       </c>
       <c r="J14" s="17">
         <f>C14/I14</f>
-        <v>98.78048780487801</v>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="11">
         <f>$A14-7</f>
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="B15" s="12">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="C15" s="14">
         <f>100*B13</f>
-        <v>20600</v>
+        <v>129600</v>
       </c>
       <c r="D15" s="14">
         <f>C18*1.5</f>
-        <v>150</v>
+        <v>1800</v>
       </c>
       <c r="E15" s="14">
         <f>3*C18</f>
-        <v>300</v>
+        <v>3600</v>
       </c>
       <c r="F15" s="14">
         <f>6*C18</f>
-        <v>600</v>
+        <v>7200</v>
       </c>
       <c r="G15" s="14">
         <f>F15*2</f>
-        <v>1200</v>
+        <v>14400</v>
       </c>
       <c r="H15" s="15"/>
       <c r="I15" s="14">
-        <v>159</v>
+        <v>1312</v>
       </c>
       <c r="J15" s="17">
         <f>C15/I15</f>
-        <v>129.559748427673</v>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="11">
         <f>$A15-7</f>
-        <v>43888</v>
+        <v>43895</v>
       </c>
       <c r="B16" s="12">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C16" s="14">
         <f>100*B14</f>
-        <v>4100</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
+        <v>20600</v>
+      </c>
+      <c r="D16" s="14">
+        <f>C19*1.5</f>
+        <v>150</v>
+      </c>
+      <c r="E16" s="14">
+        <f>3*C19</f>
+        <v>300</v>
+      </c>
+      <c r="F16" s="14">
+        <f>6*C19</f>
+        <v>600</v>
+      </c>
+      <c r="G16" s="14">
+        <f>F16*2</f>
+        <v>1200</v>
+      </c>
+      <c r="H16" s="15"/>
       <c r="I16" s="14">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="J16" s="17">
         <f>C16/I16</f>
-        <v>69.4915254237288</v>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="11">
         <f>$A16-7</f>
-        <v>43881</v>
-      </c>
-      <c r="B17" s="12"/>
+        <v>43888</v>
+      </c>
+      <c r="B17" s="12">
+        <v>1</v>
+      </c>
       <c r="C17" s="14">
         <f>100*B15</f>
-        <v>1200</v>
+        <v>4100</v>
       </c>
       <c r="D17" s="14"/>
       <c r="E17" s="14"/>
@@ -1908,60 +1907,63 @@
       <c r="G17" s="14"/>
       <c r="H17" s="14"/>
       <c r="I17" s="14">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="J17" s="17">
         <f>C17/I17</f>
-        <v>80</v>
+        <v>69.4915254237288</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="11">
         <f>$A17-7</f>
-        <v>43874</v>
+        <v>43881</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="14">
         <f>100*B16</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="D18" s="14"/>
       <c r="E18" s="14"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
       <c r="H18" s="14"/>
       <c r="I18" s="14">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J18" s="17">
         <f>C18/I18</f>
-        <v>7.14285714285714</v>
+        <v>80</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="11">
         <f>$A18-7</f>
-        <v>43867</v>
+        <v>43874</v>
       </c>
       <c r="B19" s="12"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
+      <c r="C19" s="14">
+        <f>100*B17</f>
+        <v>100</v>
+      </c>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
       <c r="F19" s="15"/>
       <c r="G19" s="15"/>
-      <c r="H19" s="18"/>
-      <c r="I19" s="18">
-        <v>12</v>
+      <c r="H19" s="14"/>
+      <c r="I19" s="14">
+        <v>14</v>
       </c>
       <c r="J19" s="17">
         <f>C19/I19</f>
-        <v>0</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="11">
         <f>$A19-7</f>
-        <v>43860</v>
+        <v>43867</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="14"/>
@@ -1971,7 +1973,7 @@
       <c r="G20" s="15"/>
       <c r="H20" s="18"/>
       <c r="I20" s="18">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J20" s="17">
         <f>C20/I20</f>
@@ -1979,16 +1981,19 @@
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="19"/>
-      <c r="B21" s="20"/>
-      <c r="C21" s="18"/>
+      <c r="A21" s="11">
+        <f>$A20-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="14"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15"/>
       <c r="F21" s="15"/>
       <c r="G21" s="15"/>
       <c r="H21" s="18"/>
       <c r="I21" s="18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J21" s="17">
         <f>C21/I21</f>
@@ -1997,24 +2002,41 @@
     </row>
     <row r="22" ht="20.05" customHeight="1">
       <c r="A22" s="19"/>
-      <c r="B22" t="s" s="21">
-        <v>10</v>
-      </c>
+      <c r="B22" s="20"/>
       <c r="C22" s="18"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15"/>
       <c r="F22" s="15"/>
       <c r="G22" s="15"/>
       <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="22"/>
+      <c r="I22" s="18">
+        <v>1</v>
+      </c>
+      <c r="J22" s="17">
+        <f>C22/I22</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" s="19"/>
+      <c r="B23" t="s" s="21">
+        <v>10</v>
+      </c>
+      <c r="C23" s="18"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:J1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B22" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B23" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>Coronavirus Extrapolations</t>
   </si>
@@ -19,22 +19,25 @@
     <t>Date</t>
   </si>
   <si>
+    <t>New Deaths</t>
+  </si>
+  <si>
+    <t>New Inferred Cases</t>
+  </si>
+  <si>
+    <t>New Confirmed Cases</t>
+  </si>
+  <si>
+    <t>New Inferred/New Confirmed</t>
+  </si>
+  <si>
+    <t>Weekly R (Past 3 Weeks)</t>
+  </si>
+  <si>
     <t>Deaths</t>
   </si>
   <si>
-    <t>Inferred Cases = Deaths x 100 Lagged 2 Weeks</t>
-  </si>
-  <si>
-    <t>Cases = 1.5 x Cases(-3)</t>
-  </si>
-  <si>
-    <t>Cases = 3 x Cases(-3)</t>
-  </si>
-  <si>
-    <t>Cases = 6 x Cases(-3)</t>
-  </si>
-  <si>
-    <t>Cases = 12 x Cases (-3)</t>
+    <t>Inferred Cases: Deaths x 100 Lagged 2</t>
   </si>
   <si>
     <t>Confirmed Cases</t>
@@ -64,7 +67,7 @@
     <numFmt numFmtId="60" formatCode="#,##0.0"/>
     <numFmt numFmtId="61" formatCode="0.0"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -77,7 +80,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="12"/>
+      <sz val="36"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
     </font>
@@ -89,7 +92,12 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="13"/>
+      <color indexed="14"/>
+      <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="15"/>
       <name val="Helvetica Neue"/>
     </font>
     <font>
@@ -99,7 +107,7 @@
       <name val="Helvetica Neue"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -114,12 +122,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="12"/>
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -147,6 +161,21 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="12"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -192,6 +221,51 @@
         <color indexed="10"/>
       </left>
       <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="12"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -232,13 +306,88 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
+      </right>
+      <top style="thin">
+        <color indexed="16"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="16"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -254,58 +403,115 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="59" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="3" fontId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="3" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="5" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="61" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -328,8 +534,12 @@
       <rgbColor rgb="ffbdc0bf"/>
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffdfdfdf"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="fff27100"/>
       <rgbColor rgb="ffd69500"/>
+      <rgbColor rgb="fff0f0f0"/>
+      <rgbColor rgb="ffd5d5d5"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1388,7 +1598,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J23"/>
+  <dimension ref="A2:L24"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1396,15 +1606,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="2" width="13.75" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.6484" style="1" customWidth="1"/>
-    <col min="4" max="7" width="9.71875" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.19531" style="1" customWidth="1"/>
-    <col min="9" max="10" width="13.75" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.26562" style="1" customWidth="1"/>
+    <col min="3" max="3" width="10.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.4062" style="1" customWidth="1"/>
+    <col min="5" max="6" width="10.2969" style="1" customWidth="1"/>
+    <col min="7" max="7" width="4.97656" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.0078" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.4609" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.7891" style="1" customWidth="1"/>
+    <col min="11" max="11" width="10.4062" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.2969" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28.65" customHeight="1">
+    <row r="1" ht="56.95" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1417,8 +1633,10 @@
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
     </row>
-    <row r="2" ht="44.25" customHeight="1">
+    <row r="2" ht="56.25" customHeight="1">
       <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
@@ -1437,603 +1655,852 @@
       <c r="F2" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="G2" t="s" s="3">
+      <c r="G2" s="4"/>
+      <c r="H2" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="H2" s="4"/>
-      <c r="I2" t="s" s="3">
+      <c r="J2" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="J2" t="s" s="3">
+      <c r="K2" t="s" s="3">
         <v>9</v>
+      </c>
+      <c r="L2" t="s" s="3">
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="20.25" customHeight="1">
-      <c r="A3" s="5">
+      <c r="A3" s="6">
         <f>$A4+7</f>
         <v>43986</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="7">
+        <f>I3-I4</f>
+        <v>6573</v>
+      </c>
+      <c r="C3" s="8">
+        <f>J3-J4</f>
+        <v>456616.2</v>
+      </c>
+      <c r="D3" s="9">
+        <f>K3-K4</f>
+        <v>159051</v>
+      </c>
+      <c r="E3" s="10">
+        <f>C3/D3</f>
+        <v>2.87087915197012</v>
+      </c>
+      <c r="F3" s="11">
+        <f>(C3/C6)^(1/3)</f>
+        <v>0.8573358714768829</v>
+      </c>
+      <c r="G3" s="12"/>
+      <c r="H3" s="13">
+        <f>$A4+7</f>
+        <v>43986</v>
+      </c>
+      <c r="I3" s="14">
         <v>110173</v>
       </c>
-      <c r="C3" s="7">
-        <f>I3*J3</f>
-        <v>12121521.3</v>
-      </c>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="8">
+      <c r="J3" s="15">
+        <f>K3*L3</f>
+        <v>11929116.2</v>
+      </c>
+      <c r="K3" s="9">
         <v>1924051</v>
       </c>
-      <c r="J3" s="10">
-        <v>6.3</v>
+      <c r="L3" s="10">
+        <v>6.2</v>
       </c>
     </row>
     <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="11">
+      <c r="A4" s="16">
         <f>$A5+7</f>
         <v>43979</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="17">
+        <f>I4-I5</f>
+        <v>7246</v>
+      </c>
+      <c r="C4" s="18">
+        <f>J4-J5</f>
+        <v>455200</v>
+      </c>
+      <c r="D4" s="19">
+        <f>K4-K5</f>
+        <v>144103</v>
+      </c>
+      <c r="E4" s="20">
+        <f>C4/D4</f>
+        <v>3.15885165471919</v>
+      </c>
+      <c r="F4" s="21">
+        <f>(C4/C7)^(1/3)</f>
+        <v>0.786565624882116</v>
+      </c>
+      <c r="G4" s="22"/>
+      <c r="H4" s="23">
+        <f>$A5+7</f>
+        <v>43979</v>
+      </c>
+      <c r="I4" s="24">
         <v>103600</v>
       </c>
-      <c r="C4" s="13">
-        <f>I4*J4</f>
+      <c r="J4" s="25">
+        <f>K4*L4</f>
         <v>11472500</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="14">
+      <c r="K4" s="19">
         <v>1765000</v>
       </c>
-      <c r="J4" s="16">
+      <c r="L4" s="20">
         <v>6.5</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="11">
+      <c r="A5" s="16">
         <f>$A6+7</f>
         <v>43972</v>
       </c>
-      <c r="B5" s="12">
+      <c r="B5" s="17">
+        <f>I5-I6</f>
+        <v>9354</v>
+      </c>
+      <c r="C5" s="19">
+        <f>J5-J6</f>
+        <v>657300</v>
+      </c>
+      <c r="D5" s="19">
+        <f>K5-K6</f>
+        <v>180897</v>
+      </c>
+      <c r="E5" s="26">
+        <f>C5/D5</f>
+        <v>3.63355942884625</v>
+      </c>
+      <c r="F5" s="27">
+        <f>(C5/C8)^(1/3)</f>
+        <v>0.867393117289844</v>
+      </c>
+      <c r="G5" s="28"/>
+      <c r="H5" s="23">
+        <f>$A6+7</f>
+        <v>43972</v>
+      </c>
+      <c r="I5" s="24">
         <v>96354</v>
       </c>
-      <c r="C5" s="14">
-        <f>B3*100</f>
+      <c r="J5" s="19">
+        <f>I3*100</f>
         <v>11017300</v>
       </c>
-      <c r="D5" s="14">
-        <f>C8*1.5</f>
-        <v>13050000</v>
-      </c>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="14">
+      <c r="K5" s="19">
         <v>1620897</v>
       </c>
-      <c r="J5" s="17">
-        <f>C5/I5</f>
+      <c r="L5" s="26">
+        <f>J5/K5</f>
         <v>6.79703892350964</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="11">
+      <c r="A6" s="16">
         <v>43965</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="17">
+        <f>I6-I7</f>
+        <v>10072</v>
+      </c>
+      <c r="C6" s="19">
+        <f>J6-J7</f>
+        <v>724600</v>
+      </c>
+      <c r="D6" s="19">
+        <f>K6-K7</f>
+        <v>147377</v>
+      </c>
+      <c r="E6" s="26">
+        <f>C6/D6</f>
+        <v>4.9166423526059</v>
+      </c>
+      <c r="F6" s="27">
+        <f>(C6/C9)^(1/3)</f>
+        <v>0.821458126164389</v>
+      </c>
+      <c r="G6" s="28"/>
+      <c r="H6" s="23">
+        <v>43965</v>
+      </c>
+      <c r="I6" s="24">
         <v>87000</v>
       </c>
-      <c r="C6" s="14">
+      <c r="J6" s="19">
         <v>10360000</v>
       </c>
-      <c r="D6" s="14">
-        <f>C9*1.5</f>
-        <v>11539200</v>
-      </c>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="14">
+      <c r="K6" s="19">
         <v>1440000</v>
       </c>
-      <c r="J6" s="17">
-        <f>C6/I6</f>
+      <c r="L6" s="26">
+        <f>J6/K6</f>
         <v>7.19444444444444</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="11">
+      <c r="A7" s="16">
         <v>43958</v>
       </c>
-      <c r="B7" s="12">
+      <c r="B7" s="17">
+        <f>I7-I8</f>
+        <v>13072</v>
+      </c>
+      <c r="C7" s="19">
+        <f>J7-J8</f>
+        <v>935400</v>
+      </c>
+      <c r="D7" s="19">
+        <f>K7-K8</f>
+        <v>197600</v>
+      </c>
+      <c r="E7" s="26">
+        <f>C7/D7</f>
+        <v>4.73380566801619</v>
+      </c>
+      <c r="F7" s="27">
+        <f>(C7/C10)^(1/3)</f>
+        <v>0.882280646327855</v>
+      </c>
+      <c r="G7" s="28"/>
+      <c r="H7" s="23">
+        <v>43958</v>
+      </c>
+      <c r="I7" s="24">
         <v>76928</v>
       </c>
-      <c r="C7" s="14">
-        <f>B5*100</f>
+      <c r="J7" s="19">
+        <f>I5*100</f>
         <v>9635400</v>
       </c>
-      <c r="D7" s="14">
-        <f>C10*1.5</f>
-        <v>9578400</v>
-      </c>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="14">
+      <c r="K7" s="19">
         <v>1292623</v>
       </c>
-      <c r="J7" s="17">
-        <f>C7/I7</f>
+      <c r="L7" s="26">
+        <f>J7/K7</f>
         <v>7.45414556293676</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="11">
+      <c r="A8" s="16">
         <v>43951</v>
       </c>
-      <c r="B8" s="12">
+      <c r="B8" s="17">
+        <f>I8-I9</f>
+        <v>13620</v>
+      </c>
+      <c r="C8" s="19">
+        <f>J8-J9</f>
+        <v>1007200</v>
+      </c>
+      <c r="D8" s="19">
+        <f>K8-K9</f>
+        <v>208581</v>
+      </c>
+      <c r="E8" s="26">
+        <f>C8/D8</f>
+        <v>4.82881949937914</v>
+      </c>
+      <c r="F8" s="27">
+        <f>(C8/C11)^(1/3)</f>
+        <v>0.863947788733022</v>
+      </c>
+      <c r="G8" s="28"/>
+      <c r="H8" s="23">
+        <v>43951</v>
+      </c>
+      <c r="I8" s="24">
         <v>63856</v>
       </c>
-      <c r="C8" s="14">
-        <f>100*B6</f>
+      <c r="J8" s="19">
+        <f>100*I6</f>
         <v>8700000</v>
       </c>
-      <c r="D8" s="14">
-        <f>C11*1.5</f>
-        <v>7535400</v>
-      </c>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="14">
+      <c r="K8" s="19">
         <v>1095023</v>
       </c>
-      <c r="J8" s="17">
-        <f>C8/I8</f>
+      <c r="L8" s="26">
+        <f>J8/K8</f>
         <v>7.9450385973628</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="11">
+      <c r="A9" s="16">
         <v>43944</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="17">
+        <f>I9-I10</f>
+        <v>15619</v>
+      </c>
+      <c r="C9" s="19">
+        <f>J9-J10</f>
+        <v>1307200</v>
+      </c>
+      <c r="D9" s="19">
+        <f>K9-K10</f>
+        <v>246778</v>
+      </c>
+      <c r="E9" s="26">
+        <f>C9/D9</f>
+        <v>5.29706862037945</v>
+      </c>
+      <c r="F9" s="27">
+        <f>(C9/C12)^(1/3)</f>
+        <v>0.90044233315585</v>
+      </c>
+      <c r="G9" s="28"/>
+      <c r="H9" s="23">
+        <v>43944</v>
+      </c>
+      <c r="I9" s="24">
         <v>50236</v>
       </c>
-      <c r="C9" s="14">
-        <f>100*B7</f>
+      <c r="J9" s="19">
+        <f>100*I7</f>
         <v>7692800</v>
       </c>
-      <c r="D9" s="14">
-        <f>C12*1.5</f>
-        <v>5192550</v>
-      </c>
-      <c r="E9" s="14">
-        <f>3*C12</f>
-        <v>10385100</v>
-      </c>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="14">
+      <c r="K9" s="19">
         <v>886442</v>
       </c>
-      <c r="J9" s="17">
-        <f>C9/I9</f>
+      <c r="L9" s="26">
+        <f>J9/K9</f>
         <v>8.67828916048653</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="11">
+      <c r="A10" s="16">
         <v>43937</v>
       </c>
-      <c r="B10" s="12">
+      <c r="B10" s="17">
+        <f>I10-I11</f>
+        <v>17905</v>
+      </c>
+      <c r="C10" s="19">
+        <f>J10-J11</f>
+        <v>1362000</v>
+      </c>
+      <c r="D10" s="19">
+        <f>K10-K11</f>
+        <v>207532</v>
+      </c>
+      <c r="E10" s="26">
+        <f>C10/D10</f>
+        <v>6.56284332054816</v>
+      </c>
+      <c r="F10" s="27">
+        <f>(C10/C13)^(1/3)</f>
+        <v>1.08633310680582</v>
+      </c>
+      <c r="G10" s="28"/>
+      <c r="H10" s="23">
+        <v>43937</v>
+      </c>
+      <c r="I10" s="24">
         <v>34617</v>
       </c>
-      <c r="C10" s="14">
-        <f>100*B8</f>
+      <c r="J10" s="19">
+        <f>100*I8</f>
         <v>6385600</v>
       </c>
-      <c r="D10" s="14">
-        <f>C13*1.5</f>
-        <v>2506800</v>
-      </c>
-      <c r="E10" s="14">
-        <f>3*C13</f>
-        <v>5013600</v>
-      </c>
-      <c r="F10" s="14">
-        <f>6*C13</f>
-        <v>10027200</v>
-      </c>
-      <c r="G10" s="14"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="14">
+      <c r="K10" s="19">
         <v>639664</v>
       </c>
-      <c r="J10" s="17">
-        <f>C10/I10</f>
+      <c r="L10" s="26">
+        <f>J10/K10</f>
         <v>9.98274093899297</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="11">
+      <c r="A11" s="16">
         <f>$A10-7</f>
         <v>43930</v>
       </c>
-      <c r="B11" s="12">
+      <c r="B11" s="17">
+        <f>I11-I12</f>
+        <v>10624</v>
+      </c>
+      <c r="C11" s="19">
+        <f>J11-J12</f>
+        <v>1561900</v>
+      </c>
+      <c r="D11" s="19">
+        <f>K11-K12</f>
+        <v>215411</v>
+      </c>
+      <c r="E11" s="26">
+        <f>C11/D11</f>
+        <v>7.25079034961074</v>
+      </c>
+      <c r="F11" s="27">
+        <f>(C11/C14)^(1/3)</f>
+        <v>1.48267331704548</v>
+      </c>
+      <c r="G11" s="28"/>
+      <c r="H11" s="23">
+        <f>$A10-7</f>
+        <v>43930</v>
+      </c>
+      <c r="I11" s="24">
         <v>16712</v>
       </c>
-      <c r="C11" s="14">
-        <f>100*B9</f>
+      <c r="J11" s="19">
+        <f>100*I9</f>
         <v>5023600</v>
       </c>
-      <c r="D11" s="14">
-        <f>C14*1.5</f>
-        <v>913200</v>
-      </c>
-      <c r="E11" s="14">
-        <f>3*C14</f>
-        <v>1826400</v>
-      </c>
-      <c r="F11" s="14">
-        <f>6*C14</f>
-        <v>3652800</v>
-      </c>
-      <c r="G11" s="14">
-        <f>F11*2</f>
-        <v>7305600</v>
-      </c>
-      <c r="H11" s="15"/>
-      <c r="I11" s="14">
+      <c r="K11" s="19">
         <v>432132</v>
       </c>
-      <c r="J11" s="17">
-        <f>C11/I11</f>
+      <c r="L11" s="26">
+        <f>J11/K11</f>
         <v>11.6251515740561</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="11">
+      <c r="A12" s="16">
         <f>$A11-7</f>
         <v>43923</v>
       </c>
-      <c r="B12" s="12">
+      <c r="B12" s="17">
+        <f>I12-I13</f>
+        <v>4792</v>
+      </c>
+      <c r="C12" s="19">
+        <f>J12-J13</f>
+        <v>1790500</v>
+      </c>
+      <c r="D12" s="19">
+        <f>K12-K13</f>
+        <v>147527</v>
+      </c>
+      <c r="E12" s="26">
+        <f>C12/D12</f>
+        <v>12.1367614063866</v>
+      </c>
+      <c r="F12" s="27">
+        <f>(C12/C15)^(1/3)</f>
+        <v>2.54204134080383</v>
+      </c>
+      <c r="G12" s="28"/>
+      <c r="H12" s="23">
+        <f>$A11-7</f>
+        <v>43923</v>
+      </c>
+      <c r="I12" s="24">
         <v>6088</v>
       </c>
-      <c r="C12" s="14">
-        <f>100*B10</f>
+      <c r="J12" s="19">
+        <f>100*I10</f>
         <v>3461700</v>
       </c>
-      <c r="D12" s="14">
-        <f>C15*1.5</f>
-        <v>194400</v>
-      </c>
-      <c r="E12" s="14">
-        <f>3*C15</f>
-        <v>388800</v>
-      </c>
-      <c r="F12" s="14">
-        <f>6*C15</f>
-        <v>777600</v>
-      </c>
-      <c r="G12" s="14">
-        <f>F12*2</f>
-        <v>1555200</v>
-      </c>
-      <c r="H12" s="15"/>
-      <c r="I12" s="14">
+      <c r="K12" s="19">
         <v>216721</v>
       </c>
-      <c r="J12" s="17">
-        <f>C12/I12</f>
+      <c r="L12" s="26">
+        <f>J12/K12</f>
         <v>15.9730713682569</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="11">
+      <c r="A13" s="16">
         <f>$A12-7</f>
         <v>43916</v>
       </c>
-      <c r="B13" s="12">
+      <c r="B13" s="17">
+        <f>I13-I14</f>
+        <v>1090</v>
+      </c>
+      <c r="C13" s="19">
+        <f>J13-J14</f>
+        <v>1062400</v>
+      </c>
+      <c r="D13" s="19">
+        <f>K13-K14</f>
+        <v>59779</v>
+      </c>
+      <c r="E13" s="26">
+        <f>C13/D13</f>
+        <v>17.7721273356864</v>
+      </c>
+      <c r="F13" s="27">
+        <f>(C13/C16)^(1/3)</f>
+        <v>4.00806453796077</v>
+      </c>
+      <c r="G13" s="28"/>
+      <c r="H13" s="23">
+        <f>$A12-7</f>
+        <v>43916</v>
+      </c>
+      <c r="I13" s="24">
         <v>1296</v>
       </c>
-      <c r="C13" s="14">
-        <f>100*B11</f>
+      <c r="J13" s="19">
+        <f>100*I11</f>
         <v>1671200</v>
       </c>
-      <c r="D13" s="14">
-        <f>C16*1.5</f>
-        <v>30900</v>
-      </c>
-      <c r="E13" s="14">
-        <f>3*C16</f>
-        <v>61800</v>
-      </c>
-      <c r="F13" s="14">
-        <f>6*C16</f>
-        <v>123600</v>
-      </c>
-      <c r="G13" s="14">
-        <f>F13*2</f>
-        <v>247200</v>
-      </c>
-      <c r="H13" s="15"/>
-      <c r="I13" s="14">
+      <c r="K13" s="19">
         <v>69194</v>
       </c>
-      <c r="J13" s="17">
-        <f>C13/I13</f>
+      <c r="L13" s="26">
+        <f>J13/K13</f>
         <v>24.1523831546088</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="11">
+      <c r="A14" s="16">
         <f>$A13-7</f>
         <v>43909</v>
       </c>
-      <c r="B14" s="12">
+      <c r="B14" s="17">
+        <f>I14-I15</f>
+        <v>165</v>
+      </c>
+      <c r="C14" s="19">
+        <f>J14-J15</f>
+        <v>479200</v>
+      </c>
+      <c r="D14" s="19">
+        <f>K14-K15</f>
+        <v>8103</v>
+      </c>
+      <c r="E14" s="26">
+        <f>C14/D14</f>
+        <v>59.138590645440</v>
+      </c>
+      <c r="F14" s="27">
+        <f>(C14/C17)^(1/3)</f>
+        <v>5.48747983275193</v>
+      </c>
+      <c r="G14" s="28"/>
+      <c r="H14" s="23">
+        <f>$A13-7</f>
+        <v>43909</v>
+      </c>
+      <c r="I14" s="24">
         <v>206</v>
       </c>
-      <c r="C14" s="14">
-        <f>100*B12</f>
+      <c r="J14" s="19">
+        <f>100*I12</f>
         <v>608800</v>
       </c>
-      <c r="D14" s="14">
-        <f>C17*1.5</f>
-        <v>6150</v>
-      </c>
-      <c r="E14" s="14">
-        <f>3*C17</f>
-        <v>12300</v>
-      </c>
-      <c r="F14" s="14">
-        <f>6*C17</f>
-        <v>24600</v>
-      </c>
-      <c r="G14" s="14">
-        <f>F14*2</f>
-        <v>49200</v>
-      </c>
-      <c r="H14" s="15"/>
-      <c r="I14" s="14">
+      <c r="K14" s="19">
         <v>9415</v>
       </c>
-      <c r="J14" s="17">
-        <f>C14/I14</f>
+      <c r="L14" s="26">
+        <f>J14/K14</f>
         <v>64.6627721720659</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="11">
+      <c r="A15" s="16">
         <f>$A14-7</f>
         <v>43902</v>
       </c>
-      <c r="B15" s="12">
+      <c r="B15" s="17">
+        <f>I15-I16</f>
+        <v>29</v>
+      </c>
+      <c r="C15" s="19">
+        <f>J15-J16</f>
+        <v>109000</v>
+      </c>
+      <c r="D15" s="19">
+        <f>K15-K16</f>
+        <v>1153</v>
+      </c>
+      <c r="E15" s="26">
+        <f>C15/D15</f>
+        <v>94.53599306157849</v>
+      </c>
+      <c r="F15" s="27">
+        <f>(C15/C18)^(1/3)</f>
+        <v>4.62748057383939</v>
+      </c>
+      <c r="G15" s="28"/>
+      <c r="H15" s="23">
+        <f>$A14-7</f>
+        <v>43902</v>
+      </c>
+      <c r="I15" s="24">
         <v>41</v>
       </c>
-      <c r="C15" s="14">
-        <f>100*B13</f>
+      <c r="J15" s="19">
+        <f>100*I13</f>
         <v>129600</v>
       </c>
-      <c r="D15" s="14">
-        <f>C18*1.5</f>
-        <v>1800</v>
-      </c>
-      <c r="E15" s="14">
-        <f>3*C18</f>
-        <v>3600</v>
-      </c>
-      <c r="F15" s="14">
-        <f>6*C18</f>
-        <v>7200</v>
-      </c>
-      <c r="G15" s="14">
-        <f>F15*2</f>
-        <v>14400</v>
-      </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="14">
+      <c r="K15" s="19">
         <v>1312</v>
       </c>
-      <c r="J15" s="17">
-        <f>C15/I15</f>
+      <c r="L15" s="26">
+        <f>J15/K15</f>
         <v>98.78048780487801</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="11">
+      <c r="A16" s="16">
         <f>$A15-7</f>
         <v>43895</v>
       </c>
-      <c r="B16" s="12">
+      <c r="B16" s="17">
+        <f>I16-I17</f>
+        <v>11</v>
+      </c>
+      <c r="C16" s="19">
+        <f>J16-J17</f>
+        <v>16500</v>
+      </c>
+      <c r="D16" s="19">
+        <f>K16-K17</f>
+        <v>100</v>
+      </c>
+      <c r="E16" s="26">
+        <f>C16/D16</f>
+        <v>165</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="23">
+        <f>$A15-7</f>
+        <v>43895</v>
+      </c>
+      <c r="I16" s="24">
         <v>12</v>
       </c>
-      <c r="C16" s="14">
-        <f>100*B14</f>
+      <c r="J16" s="19">
+        <f>100*I14</f>
         <v>20600</v>
       </c>
-      <c r="D16" s="14">
-        <f>C19*1.5</f>
-        <v>150</v>
-      </c>
-      <c r="E16" s="14">
-        <f>3*C19</f>
-        <v>300</v>
-      </c>
-      <c r="F16" s="14">
-        <f>6*C19</f>
-        <v>600</v>
-      </c>
-      <c r="G16" s="14">
-        <f>F16*2</f>
-        <v>1200</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="14">
+      <c r="K16" s="19">
         <v>159</v>
       </c>
-      <c r="J16" s="17">
-        <f>C16/I16</f>
+      <c r="L16" s="26">
+        <f>J16/K16</f>
         <v>129.559748427673</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="11">
+      <c r="A17" s="16">
         <f>$A16-7</f>
         <v>43888</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="17"/>
+      <c r="C17" s="19">
+        <f>J17-J18</f>
+        <v>2900</v>
+      </c>
+      <c r="D17" s="19">
+        <f>K17-K18</f>
+        <v>44</v>
+      </c>
+      <c r="E17" s="26">
+        <f>C17/D17</f>
+        <v>65.90909090909091</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="23">
+        <f>$A16-7</f>
+        <v>43888</v>
+      </c>
+      <c r="I17" s="24">
         <v>1</v>
       </c>
-      <c r="C17" s="14">
-        <f>100*B15</f>
+      <c r="J17" s="19">
+        <f>100*I15</f>
         <v>4100</v>
       </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14">
+      <c r="K17" s="19">
         <v>59</v>
       </c>
-      <c r="J17" s="17">
-        <f>C17/I17</f>
+      <c r="L17" s="26">
+        <f>J17/K17</f>
         <v>69.4915254237288</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="11">
+      <c r="A18" s="16">
         <f>$A17-7</f>
         <v>43881</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="14">
-        <f>100*B16</f>
+      <c r="B18" s="17"/>
+      <c r="C18" s="19">
+        <f>J18-J19</f>
+        <v>1100</v>
+      </c>
+      <c r="D18" s="19">
+        <f>K18-K19</f>
+        <v>1</v>
+      </c>
+      <c r="E18" s="26">
+        <f>C18/D18</f>
+        <v>1100</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="23">
+        <f>$A17-7</f>
+        <v>43881</v>
+      </c>
+      <c r="I18" s="24"/>
+      <c r="J18" s="19">
+        <f>100*I16</f>
         <v>1200</v>
       </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14">
+      <c r="K18" s="19">
         <v>15</v>
       </c>
-      <c r="J18" s="17">
-        <f>C18/I18</f>
+      <c r="L18" s="26">
+        <f>J18/K18</f>
         <v>80</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="11">
+      <c r="A19" s="16">
         <f>$A18-7</f>
         <v>43874</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="14">
-        <f>100*B17</f>
+      <c r="B19" s="17"/>
+      <c r="C19" s="19"/>
+      <c r="D19" s="19">
+        <f>K19-K20</f>
+        <v>2</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="23">
+        <f>$A18-7</f>
+        <v>43874</v>
+      </c>
+      <c r="I19" s="24"/>
+      <c r="J19" s="19">
+        <f>100*I17</f>
         <v>100</v>
       </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14">
+      <c r="K19" s="19">
         <v>14</v>
       </c>
-      <c r="J19" s="17">
-        <f>C19/I19</f>
+      <c r="L19" s="26">
+        <f>J19/K19</f>
         <v>7.14285714285714</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="11">
+      <c r="A20" s="16">
         <f>$A19-7</f>
         <v>43867</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="18">
+      <c r="B20" s="17"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="19">
+        <f>K20-K21</f>
+        <v>7</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="23">
+        <f>$A19-7</f>
+        <v>43867</v>
+      </c>
+      <c r="I20" s="24"/>
+      <c r="J20" s="19"/>
+      <c r="K20" s="29">
         <v>12</v>
       </c>
-      <c r="J20" s="17">
-        <f>C20/I20</f>
+      <c r="L20" s="26">
+        <f>J20/K20</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="11">
+      <c r="A21" s="16">
         <f>$A20-7</f>
         <v>43860</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
-      <c r="H21" s="18"/>
-      <c r="I21" s="18">
+      <c r="B21" s="17"/>
+      <c r="C21" s="19"/>
+      <c r="D21" s="19">
+        <f>K21-K22</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="26"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="23">
+        <f>$A20-7</f>
+        <v>43860</v>
+      </c>
+      <c r="I21" s="24"/>
+      <c r="J21" s="19"/>
+      <c r="K21" s="29">
         <v>5</v>
       </c>
-      <c r="J21" s="17">
-        <f>C21/I21</f>
+      <c r="L21" s="26">
+        <f>J21/K21</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="20"/>
-      <c r="C22" s="18"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18">
+      <c r="A22" s="30"/>
+      <c r="B22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="33"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29">
         <v>1</v>
       </c>
-      <c r="J22" s="17">
-        <f>C22/I22</f>
+      <c r="L22" s="26">
+        <f>J22/K22</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="19"/>
-      <c r="B23" t="s" s="21">
-        <v>10</v>
-      </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="22"/>
+      <c r="A23" s="30"/>
+      <c r="B23" t="s" s="34">
+        <v>11</v>
+      </c>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="35"/>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" s="30"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="29"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="37"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="B23" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>

--- a/coronavirus-extrapolations.xlsx
+++ b/coronavirus-extrapolations.xlsx
@@ -133,7 +133,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -242,7 +242,7 @@
         <color indexed="12"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </bottom>
       <diagonal/>
     </border>
@@ -329,7 +329,7 @@
         <color indexed="16"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="12"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -342,6 +342,21 @@
       </left>
       <right style="thin">
         <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="16"/>
+      </left>
+      <right style="thin">
+        <color indexed="16"/>
       </right>
       <top style="thin">
         <color indexed="10"/>
@@ -387,7 +402,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -472,6 +487,9 @@
     <xf numFmtId="4" fontId="0" borderId="11" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="59" fontId="3" fillId="4" borderId="15" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="60" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -484,7 +502,7 @@
     <xf numFmtId="1" fontId="0" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" borderId="14" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -502,7 +520,7 @@
     <xf numFmtId="61" fontId="0" borderId="12" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -511,7 +529,7 @@
     <xf numFmtId="0" fontId="0" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="17" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1598,7 +1616,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:L24"/>
+  <dimension ref="A2:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
       <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
@@ -1672,777 +1690,794 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" ht="20.25" customHeight="1">
+    <row r="3" ht="20.45" customHeight="1">
       <c r="A3" s="6">
         <f>$A4+7</f>
-        <v>43986</v>
+        <v>43993</v>
       </c>
       <c r="B3" s="7">
         <f>I3-I4</f>
-        <v>6573</v>
+        <v>5861</v>
       </c>
       <c r="C3" s="8">
         <f>J3-J4</f>
-        <v>456616.2</v>
+        <v>642219.8</v>
       </c>
       <c r="D3" s="9">
         <f>K3-K4</f>
-        <v>159051</v>
+        <v>165650</v>
       </c>
       <c r="E3" s="10">
         <f>C3/D3</f>
-        <v>2.87087915197012</v>
+        <v>3.87696830667069</v>
       </c>
       <c r="F3" s="11">
         <f>(C3/C6)^(1/3)</f>
-        <v>0.8573358714768829</v>
+        <v>0.99229320991712</v>
       </c>
       <c r="G3" s="12"/>
       <c r="H3" s="13">
         <f>$A4+7</f>
-        <v>43986</v>
+        <v>43993</v>
       </c>
       <c r="I3" s="14">
-        <v>110173</v>
+        <v>116034</v>
       </c>
       <c r="J3" s="15">
         <f>K3*L3</f>
-        <v>11929116.2</v>
+        <v>12956146.2</v>
       </c>
       <c r="K3" s="9">
-        <v>1924051</v>
+        <v>2089701</v>
       </c>
       <c r="L3" s="10">
         <v>6.2</v>
       </c>
     </row>
-    <row r="4" ht="20.05" customHeight="1">
+    <row r="4" ht="20.25" customHeight="1">
       <c r="A4" s="16">
         <f>$A5+7</f>
-        <v>43979</v>
+        <v>43986</v>
       </c>
       <c r="B4" s="17">
         <f>I4-I5</f>
-        <v>7246</v>
+        <v>6573</v>
       </c>
       <c r="C4" s="18">
         <f>J4-J5</f>
-        <v>455200</v>
+        <v>710526.4</v>
       </c>
       <c r="D4" s="19">
         <f>K4-K5</f>
-        <v>144103</v>
+        <v>159051</v>
       </c>
       <c r="E4" s="20">
         <f>C4/D4</f>
-        <v>3.15885165471919</v>
+        <v>4.46728659360834</v>
       </c>
       <c r="F4" s="21">
         <f>(C4/C7)^(1/3)</f>
-        <v>0.786565624882116</v>
+        <v>0.993483433952295</v>
       </c>
       <c r="G4" s="22"/>
       <c r="H4" s="23">
         <f>$A5+7</f>
-        <v>43979</v>
+        <v>43986</v>
       </c>
       <c r="I4" s="24">
-        <v>103600</v>
+        <v>110173</v>
       </c>
       <c r="J4" s="25">
         <f>K4*L4</f>
-        <v>11472500</v>
+        <v>12313926.4</v>
       </c>
       <c r="K4" s="19">
-        <v>1765000</v>
+        <v>1924051</v>
       </c>
       <c r="L4" s="20">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
     </row>
     <row r="5" ht="20.05" customHeight="1">
       <c r="A5" s="16">
         <f>$A6+7</f>
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="B5" s="17">
         <f>I5-I6</f>
-        <v>9354</v>
+        <v>7246</v>
       </c>
       <c r="C5" s="19">
         <f>J5-J6</f>
-        <v>657300</v>
+        <v>586100</v>
       </c>
       <c r="D5" s="19">
         <f>K5-K6</f>
-        <v>180897</v>
+        <v>144103</v>
       </c>
       <c r="E5" s="26">
         <f>C5/D5</f>
-        <v>3.63355942884625</v>
+        <v>4.0672296898746</v>
       </c>
       <c r="F5" s="27">
         <f>(C5/C8)^(1/3)</f>
-        <v>0.867393117289844</v>
-      </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="23">
+        <v>0.855706410034197</v>
+      </c>
+      <c r="G5" s="22"/>
+      <c r="H5" s="28">
         <f>$A6+7</f>
-        <v>43972</v>
+        <v>43979</v>
       </c>
       <c r="I5" s="24">
-        <v>96354</v>
+        <v>103600</v>
       </c>
       <c r="J5" s="19">
         <f>I3*100</f>
-        <v>11017300</v>
+        <v>11603400</v>
       </c>
       <c r="K5" s="19">
-        <v>1620897</v>
+        <v>1765000</v>
       </c>
       <c r="L5" s="26">
         <f>J5/K5</f>
-        <v>6.79703892350964</v>
+        <v>6.57416430594901</v>
       </c>
     </row>
     <row r="6" ht="20.05" customHeight="1">
       <c r="A6" s="16">
-        <v>43965</v>
+        <f>$A7+7</f>
+        <v>43972</v>
       </c>
       <c r="B6" s="17">
         <f>I6-I7</f>
-        <v>10072</v>
+        <v>9354</v>
       </c>
       <c r="C6" s="19">
         <f>J6-J7</f>
-        <v>724600</v>
+        <v>657300</v>
       </c>
       <c r="D6" s="19">
         <f>K6-K7</f>
-        <v>147377</v>
+        <v>180897</v>
       </c>
       <c r="E6" s="26">
         <f>C6/D6</f>
-        <v>4.9166423526059</v>
+        <v>3.63355942884625</v>
       </c>
       <c r="F6" s="27">
         <f>(C6/C9)^(1/3)</f>
-        <v>0.821458126164389</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="23">
-        <v>43965</v>
+        <v>0.867393117289844</v>
+      </c>
+      <c r="G6" s="29"/>
+      <c r="H6" s="28">
+        <f>$A7+7</f>
+        <v>43972</v>
       </c>
       <c r="I6" s="24">
-        <v>87000</v>
+        <v>96354</v>
       </c>
       <c r="J6" s="19">
-        <v>10360000</v>
+        <f>I4*100</f>
+        <v>11017300</v>
       </c>
       <c r="K6" s="19">
-        <v>1440000</v>
+        <v>1620897</v>
       </c>
       <c r="L6" s="26">
         <f>J6/K6</f>
-        <v>7.19444444444444</v>
+        <v>6.79703892350964</v>
       </c>
     </row>
     <row r="7" ht="20.05" customHeight="1">
       <c r="A7" s="16">
-        <v>43958</v>
+        <v>43965</v>
       </c>
       <c r="B7" s="17">
         <f>I7-I8</f>
-        <v>13072</v>
+        <v>10072</v>
       </c>
       <c r="C7" s="19">
         <f>J7-J8</f>
-        <v>935400</v>
+        <v>724600</v>
       </c>
       <c r="D7" s="19">
         <f>K7-K8</f>
-        <v>197600</v>
+        <v>147377</v>
       </c>
       <c r="E7" s="26">
         <f>C7/D7</f>
-        <v>4.73380566801619</v>
+        <v>4.9166423526059</v>
       </c>
       <c r="F7" s="27">
         <f>(C7/C10)^(1/3)</f>
-        <v>0.882280646327855</v>
-      </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="23">
-        <v>43958</v>
+        <v>0.821458126164389</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="28">
+        <v>43965</v>
       </c>
       <c r="I7" s="24">
-        <v>76928</v>
+        <v>87000</v>
       </c>
       <c r="J7" s="19">
-        <f>I5*100</f>
-        <v>9635400</v>
+        <v>10360000</v>
       </c>
       <c r="K7" s="19">
-        <v>1292623</v>
+        <v>1440000</v>
       </c>
       <c r="L7" s="26">
         <f>J7/K7</f>
-        <v>7.45414556293676</v>
+        <v>7.19444444444444</v>
       </c>
     </row>
     <row r="8" ht="20.05" customHeight="1">
       <c r="A8" s="16">
-        <v>43951</v>
+        <v>43958</v>
       </c>
       <c r="B8" s="17">
         <f>I8-I9</f>
-        <v>13620</v>
+        <v>13072</v>
       </c>
       <c r="C8" s="19">
         <f>J8-J9</f>
-        <v>1007200</v>
+        <v>935400</v>
       </c>
       <c r="D8" s="19">
         <f>K8-K9</f>
-        <v>208581</v>
+        <v>197600</v>
       </c>
       <c r="E8" s="26">
         <f>C8/D8</f>
-        <v>4.82881949937914</v>
+        <v>4.73380566801619</v>
       </c>
       <c r="F8" s="27">
         <f>(C8/C11)^(1/3)</f>
-        <v>0.863947788733022</v>
-      </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="23">
-        <v>43951</v>
+        <v>0.882280646327855</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="28">
+        <v>43958</v>
       </c>
       <c r="I8" s="24">
-        <v>63856</v>
+        <v>76928</v>
       </c>
       <c r="J8" s="19">
-        <f>100*I6</f>
-        <v>8700000</v>
+        <f>I6*100</f>
+        <v>9635400</v>
       </c>
       <c r="K8" s="19">
-        <v>1095023</v>
+        <v>1292623</v>
       </c>
       <c r="L8" s="26">
         <f>J8/K8</f>
-        <v>7.9450385973628</v>
+        <v>7.45414556293676</v>
       </c>
     </row>
     <row r="9" ht="20.05" customHeight="1">
       <c r="A9" s="16">
-        <v>43944</v>
+        <v>43951</v>
       </c>
       <c r="B9" s="17">
         <f>I9-I10</f>
-        <v>15619</v>
+        <v>13620</v>
       </c>
       <c r="C9" s="19">
         <f>J9-J10</f>
-        <v>1307200</v>
+        <v>1007200</v>
       </c>
       <c r="D9" s="19">
         <f>K9-K10</f>
-        <v>246778</v>
+        <v>208581</v>
       </c>
       <c r="E9" s="26">
         <f>C9/D9</f>
-        <v>5.29706862037945</v>
+        <v>4.82881949937914</v>
       </c>
       <c r="F9" s="27">
         <f>(C9/C12)^(1/3)</f>
-        <v>0.90044233315585</v>
-      </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="23">
-        <v>43944</v>
+        <v>0.863947788733022</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="28">
+        <v>43951</v>
       </c>
       <c r="I9" s="24">
-        <v>50236</v>
+        <v>63856</v>
       </c>
       <c r="J9" s="19">
         <f>100*I7</f>
-        <v>7692800</v>
+        <v>8700000</v>
       </c>
       <c r="K9" s="19">
-        <v>886442</v>
+        <v>1095023</v>
       </c>
       <c r="L9" s="26">
         <f>J9/K9</f>
-        <v>8.67828916048653</v>
+        <v>7.9450385973628</v>
       </c>
     </row>
     <row r="10" ht="20.05" customHeight="1">
       <c r="A10" s="16">
-        <v>43937</v>
+        <v>43944</v>
       </c>
       <c r="B10" s="17">
         <f>I10-I11</f>
-        <v>17905</v>
+        <v>15619</v>
       </c>
       <c r="C10" s="19">
         <f>J10-J11</f>
-        <v>1362000</v>
+        <v>1307200</v>
       </c>
       <c r="D10" s="19">
         <f>K10-K11</f>
-        <v>207532</v>
+        <v>246778</v>
       </c>
       <c r="E10" s="26">
         <f>C10/D10</f>
-        <v>6.56284332054816</v>
+        <v>5.29706862037945</v>
       </c>
       <c r="F10" s="27">
         <f>(C10/C13)^(1/3)</f>
-        <v>1.08633310680582</v>
-      </c>
-      <c r="G10" s="28"/>
-      <c r="H10" s="23">
-        <v>43937</v>
+        <v>0.90044233315585</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="28">
+        <v>43944</v>
       </c>
       <c r="I10" s="24">
-        <v>34617</v>
+        <v>50236</v>
       </c>
       <c r="J10" s="19">
         <f>100*I8</f>
-        <v>6385600</v>
+        <v>7692800</v>
       </c>
       <c r="K10" s="19">
-        <v>639664</v>
+        <v>886442</v>
       </c>
       <c r="L10" s="26">
         <f>J10/K10</f>
-        <v>9.98274093899297</v>
+        <v>8.67828916048653</v>
       </c>
     </row>
     <row r="11" ht="20.05" customHeight="1">
       <c r="A11" s="16">
-        <f>$A10-7</f>
-        <v>43930</v>
+        <v>43937</v>
       </c>
       <c r="B11" s="17">
         <f>I11-I12</f>
-        <v>10624</v>
+        <v>17905</v>
       </c>
       <c r="C11" s="19">
         <f>J11-J12</f>
-        <v>1561900</v>
+        <v>1362000</v>
       </c>
       <c r="D11" s="19">
         <f>K11-K12</f>
-        <v>215411</v>
+        <v>207532</v>
       </c>
       <c r="E11" s="26">
         <f>C11/D11</f>
-        <v>7.25079034961074</v>
+        <v>6.56284332054816</v>
       </c>
       <c r="F11" s="27">
         <f>(C11/C14)^(1/3)</f>
-        <v>1.48267331704548</v>
-      </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="23">
-        <f>$A10-7</f>
-        <v>43930</v>
+        <v>1.08633310680582</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="28">
+        <v>43937</v>
       </c>
       <c r="I11" s="24">
-        <v>16712</v>
+        <v>34617</v>
       </c>
       <c r="J11" s="19">
         <f>100*I9</f>
-        <v>5023600</v>
+        <v>6385600</v>
       </c>
       <c r="K11" s="19">
-        <v>432132</v>
+        <v>639664</v>
       </c>
       <c r="L11" s="26">
         <f>J11/K11</f>
-        <v>11.6251515740561</v>
+        <v>9.98274093899297</v>
       </c>
     </row>
     <row r="12" ht="20.05" customHeight="1">
       <c r="A12" s="16">
         <f>$A11-7</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="B12" s="17">
         <f>I12-I13</f>
-        <v>4792</v>
+        <v>10624</v>
       </c>
       <c r="C12" s="19">
         <f>J12-J13</f>
-        <v>1790500</v>
+        <v>1561900</v>
       </c>
       <c r="D12" s="19">
         <f>K12-K13</f>
-        <v>147527</v>
+        <v>215411</v>
       </c>
       <c r="E12" s="26">
         <f>C12/D12</f>
-        <v>12.1367614063866</v>
+        <v>7.25079034961074</v>
       </c>
       <c r="F12" s="27">
         <f>(C12/C15)^(1/3)</f>
-        <v>2.54204134080383</v>
-      </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="23">
+        <v>1.48267331704548</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="28">
         <f>$A11-7</f>
-        <v>43923</v>
+        <v>43930</v>
       </c>
       <c r="I12" s="24">
-        <v>6088</v>
+        <v>16712</v>
       </c>
       <c r="J12" s="19">
         <f>100*I10</f>
-        <v>3461700</v>
+        <v>5023600</v>
       </c>
       <c r="K12" s="19">
-        <v>216721</v>
+        <v>432132</v>
       </c>
       <c r="L12" s="26">
         <f>J12/K12</f>
-        <v>15.9730713682569</v>
+        <v>11.6251515740561</v>
       </c>
     </row>
     <row r="13" ht="20.05" customHeight="1">
       <c r="A13" s="16">
         <f>$A12-7</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="B13" s="17">
         <f>I13-I14</f>
-        <v>1090</v>
+        <v>4792</v>
       </c>
       <c r="C13" s="19">
         <f>J13-J14</f>
-        <v>1062400</v>
+        <v>1790500</v>
       </c>
       <c r="D13" s="19">
         <f>K13-K14</f>
-        <v>59779</v>
+        <v>147527</v>
       </c>
       <c r="E13" s="26">
         <f>C13/D13</f>
-        <v>17.7721273356864</v>
+        <v>12.1367614063866</v>
       </c>
       <c r="F13" s="27">
         <f>(C13/C16)^(1/3)</f>
-        <v>4.00806453796077</v>
-      </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="23">
+        <v>2.54204134080383</v>
+      </c>
+      <c r="G13" s="29"/>
+      <c r="H13" s="28">
         <f>$A12-7</f>
-        <v>43916</v>
+        <v>43923</v>
       </c>
       <c r="I13" s="24">
-        <v>1296</v>
+        <v>6088</v>
       </c>
       <c r="J13" s="19">
         <f>100*I11</f>
-        <v>1671200</v>
+        <v>3461700</v>
       </c>
       <c r="K13" s="19">
-        <v>69194</v>
+        <v>216721</v>
       </c>
       <c r="L13" s="26">
         <f>J13/K13</f>
-        <v>24.1523831546088</v>
+        <v>15.9730713682569</v>
       </c>
     </row>
     <row r="14" ht="20.05" customHeight="1">
       <c r="A14" s="16">
         <f>$A13-7</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="B14" s="17">
         <f>I14-I15</f>
-        <v>165</v>
+        <v>1090</v>
       </c>
       <c r="C14" s="19">
         <f>J14-J15</f>
-        <v>479200</v>
+        <v>1062400</v>
       </c>
       <c r="D14" s="19">
         <f>K14-K15</f>
-        <v>8103</v>
+        <v>59779</v>
       </c>
       <c r="E14" s="26">
         <f>C14/D14</f>
-        <v>59.138590645440</v>
+        <v>17.7721273356864</v>
       </c>
       <c r="F14" s="27">
         <f>(C14/C17)^(1/3)</f>
-        <v>5.48747983275193</v>
-      </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="23">
+        <v>4.00806453796077</v>
+      </c>
+      <c r="G14" s="29"/>
+      <c r="H14" s="28">
         <f>$A13-7</f>
-        <v>43909</v>
+        <v>43916</v>
       </c>
       <c r="I14" s="24">
-        <v>206</v>
+        <v>1296</v>
       </c>
       <c r="J14" s="19">
         <f>100*I12</f>
-        <v>608800</v>
+        <v>1671200</v>
       </c>
       <c r="K14" s="19">
-        <v>9415</v>
+        <v>69194</v>
       </c>
       <c r="L14" s="26">
         <f>J14/K14</f>
-        <v>64.6627721720659</v>
+        <v>24.1523831546088</v>
       </c>
     </row>
     <row r="15" ht="20.05" customHeight="1">
       <c r="A15" s="16">
         <f>$A14-7</f>
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="B15" s="17">
         <f>I15-I16</f>
-        <v>29</v>
+        <v>165</v>
       </c>
       <c r="C15" s="19">
         <f>J15-J16</f>
-        <v>109000</v>
+        <v>479200</v>
       </c>
       <c r="D15" s="19">
         <f>K15-K16</f>
-        <v>1153</v>
+        <v>8103</v>
       </c>
       <c r="E15" s="26">
         <f>C15/D15</f>
-        <v>94.53599306157849</v>
+        <v>59.138590645440</v>
       </c>
       <c r="F15" s="27">
         <f>(C15/C18)^(1/3)</f>
-        <v>4.62748057383939</v>
-      </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="23">
+        <v>5.48747983275193</v>
+      </c>
+      <c r="G15" s="29"/>
+      <c r="H15" s="28">
         <f>$A14-7</f>
-        <v>43902</v>
+        <v>43909</v>
       </c>
       <c r="I15" s="24">
-        <v>41</v>
+        <v>206</v>
       </c>
       <c r="J15" s="19">
         <f>100*I13</f>
-        <v>129600</v>
+        <v>608800</v>
       </c>
       <c r="K15" s="19">
-        <v>1312</v>
+        <v>9415</v>
       </c>
       <c r="L15" s="26">
         <f>J15/K15</f>
-        <v>98.78048780487801</v>
+        <v>64.6627721720659</v>
       </c>
     </row>
     <row r="16" ht="20.05" customHeight="1">
       <c r="A16" s="16">
         <f>$A15-7</f>
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="B16" s="17">
         <f>I16-I17</f>
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="C16" s="19">
         <f>J16-J17</f>
-        <v>16500</v>
+        <v>109000</v>
       </c>
       <c r="D16" s="19">
         <f>K16-K17</f>
-        <v>100</v>
+        <v>1153</v>
       </c>
       <c r="E16" s="26">
         <f>C16/D16</f>
-        <v>165</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="23">
+        <v>94.53599306157849</v>
+      </c>
+      <c r="F16" s="27">
+        <f>(C16/C19)^(1/3)</f>
+        <v>4.62748057383939</v>
+      </c>
+      <c r="G16" s="29"/>
+      <c r="H16" s="28">
         <f>$A15-7</f>
-        <v>43895</v>
+        <v>43902</v>
       </c>
       <c r="I16" s="24">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="J16" s="19">
         <f>100*I14</f>
-        <v>20600</v>
+        <v>129600</v>
       </c>
       <c r="K16" s="19">
-        <v>159</v>
+        <v>1312</v>
       </c>
       <c r="L16" s="26">
         <f>J16/K16</f>
-        <v>129.559748427673</v>
+        <v>98.78048780487801</v>
       </c>
     </row>
     <row r="17" ht="20.05" customHeight="1">
       <c r="A17" s="16">
         <f>$A16-7</f>
-        <v>43888</v>
-      </c>
-      <c r="B17" s="17"/>
+        <v>43895</v>
+      </c>
+      <c r="B17" s="17">
+        <f>I17-I18</f>
+        <v>11</v>
+      </c>
       <c r="C17" s="19">
         <f>J17-J18</f>
-        <v>2900</v>
+        <v>16500</v>
       </c>
       <c r="D17" s="19">
         <f>K17-K18</f>
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="E17" s="26">
         <f>C17/D17</f>
-        <v>65.90909090909091</v>
+        <v>165</v>
       </c>
       <c r="F17" s="27"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="23">
+      <c r="G17" s="29"/>
+      <c r="H17" s="28">
         <f>$A16-7</f>
-        <v>43888</v>
+        <v>43895</v>
       </c>
       <c r="I17" s="24">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J17" s="19">
         <f>100*I15</f>
-        <v>4100</v>
+        <v>20600</v>
       </c>
       <c r="K17" s="19">
-        <v>59</v>
+        <v>159</v>
       </c>
       <c r="L17" s="26">
         <f>J17/K17</f>
-        <v>69.4915254237288</v>
+        <v>129.559748427673</v>
       </c>
     </row>
     <row r="18" ht="20.05" customHeight="1">
       <c r="A18" s="16">
         <f>$A17-7</f>
-        <v>43881</v>
+        <v>43888</v>
       </c>
       <c r="B18" s="17"/>
       <c r="C18" s="19">
         <f>J18-J19</f>
-        <v>1100</v>
+        <v>2900</v>
       </c>
       <c r="D18" s="19">
         <f>K18-K19</f>
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E18" s="26">
         <f>C18/D18</f>
-        <v>1100</v>
+        <v>65.90909090909091</v>
       </c>
       <c r="F18" s="27"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="23">
+      <c r="G18" s="29"/>
+      <c r="H18" s="28">
         <f>$A17-7</f>
-        <v>43881</v>
-      </c>
-      <c r="I18" s="24"/>
+        <v>43888</v>
+      </c>
+      <c r="I18" s="24">
+        <v>1</v>
+      </c>
       <c r="J18" s="19">
         <f>100*I16</f>
-        <v>1200</v>
+        <v>4100</v>
       </c>
       <c r="K18" s="19">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="L18" s="26">
         <f>J18/K18</f>
-        <v>80</v>
+        <v>69.4915254237288</v>
       </c>
     </row>
     <row r="19" ht="20.05" customHeight="1">
       <c r="A19" s="16">
         <f>$A18-7</f>
-        <v>43874</v>
+        <v>43881</v>
       </c>
       <c r="B19" s="17"/>
-      <c r="C19" s="19"/>
+      <c r="C19" s="19">
+        <f>J19-J20</f>
+        <v>1100</v>
+      </c>
       <c r="D19" s="19">
         <f>K19-K20</f>
-        <v>2</v>
-      </c>
-      <c r="E19" s="26"/>
+        <v>1</v>
+      </c>
+      <c r="E19" s="26">
+        <f>C19/D19</f>
+        <v>1100</v>
+      </c>
       <c r="F19" s="27"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="23">
+      <c r="G19" s="29"/>
+      <c r="H19" s="28">
         <f>$A18-7</f>
-        <v>43874</v>
+        <v>43881</v>
       </c>
       <c r="I19" s="24"/>
       <c r="J19" s="19">
         <f>100*I17</f>
-        <v>100</v>
+        <v>1200</v>
       </c>
       <c r="K19" s="19">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L19" s="26">
         <f>J19/K19</f>
-        <v>7.14285714285714</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" ht="20.05" customHeight="1">
       <c r="A20" s="16">
         <f>$A19-7</f>
-        <v>43867</v>
+        <v>43874</v>
       </c>
       <c r="B20" s="17"/>
       <c r="C20" s="19"/>
       <c r="D20" s="19">
         <f>K20-K21</f>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E20" s="26"/>
       <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="23">
+      <c r="G20" s="29"/>
+      <c r="H20" s="28">
         <f>$A19-7</f>
-        <v>43867</v>
+        <v>43874</v>
       </c>
       <c r="I20" s="24"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="29">
-        <v>12</v>
+      <c r="J20" s="19">
+        <f>100*I18</f>
+        <v>100</v>
+      </c>
+      <c r="K20" s="19">
+        <v>14</v>
       </c>
       <c r="L20" s="26">
         <f>J20/K20</f>
-        <v>0</v>
+        <v>7.14285714285714</v>
       </c>
     </row>
     <row r="21" ht="20.05" customHeight="1">
       <c r="A21" s="16">
         <f>$A20-7</f>
-        <v>43860</v>
+        <v>43867</v>
       </c>
       <c r="B21" s="17"/>
       <c r="C21" s="19"/>
       <c r="D21" s="19">
         <f>K21-K22</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E21" s="26"/>
       <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="23">
+      <c r="G21" s="29"/>
+      <c r="H21" s="28">
         <f>$A20-7</f>
-        <v>43860</v>
+        <v>43867</v>
       </c>
       <c r="I21" s="24"/>
       <c r="J21" s="19"/>
-      <c r="K21" s="29">
-        <v>5</v>
+      <c r="K21" s="30">
+        <v>12</v>
       </c>
       <c r="L21" s="26">
         <f>J21/K21</f>
@@ -2450,18 +2485,27 @@
       </c>
     </row>
     <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="30"/>
-      <c r="B22" s="31"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="A22" s="16">
+        <f>$A21-7</f>
+        <v>43860</v>
+      </c>
+      <c r="B22" s="17"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19">
+        <f>K22-K23</f>
+        <v>4</v>
+      </c>
       <c r="E22" s="26"/>
       <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="32"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="29">
-        <v>1</v>
+      <c r="G22" s="29"/>
+      <c r="H22" s="28">
+        <f>$A21-7</f>
+        <v>43860</v>
+      </c>
+      <c r="I22" s="24"/>
+      <c r="J22" s="19"/>
+      <c r="K22" s="30">
+        <v>5</v>
       </c>
       <c r="L22" s="26">
         <f>J22/K22</f>
@@ -2469,41 +2513,60 @@
       </c>
     </row>
     <row r="23" ht="20.05" customHeight="1">
-      <c r="A23" s="30"/>
-      <c r="B23" t="s" s="34">
-        <v>11</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="29"/>
-      <c r="L23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30">
+        <v>1</v>
+      </c>
+      <c r="L23" s="26">
+        <f>J23/K23</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" ht="20.05" customHeight="1">
-      <c r="A24" s="30"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="37"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="39"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="29"/>
-      <c r="L24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" t="s" s="35">
+        <v>11</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="39"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="36"/>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" s="31"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
+      <c r="L25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:L1"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="B23" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
+    <hyperlink ref="B24" r:id="rId1" location="" tooltip="" display="https://www.icloud.com/numbers/0EzBEAgAQojAip4VJWYWIWICQ"/>
   </hyperlinks>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
